--- a/src/static/xlsx/enriched_data.xlsx
+++ b/src/static/xlsx/enriched_data.xlsx
@@ -607,7 +607,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.432337</t>
+          <t>2025-03-31T00:39:25.402721</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.432337</t>
+          <t>2025-03-31T00:39:25.402721</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -747,7 +747,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Western Europe</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.432337</t>
+          <t>2025-03-31T00:39:25.402721</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -851,7 +851,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>["Freetown"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.432337</t>
+          <t>2025-03-31T00:39:25.402721</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -959,7 +959,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.447934</t>
+          <t>2025-03-31T00:39:25.402721</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.447934</t>
+          <t>2025-03-31T00:39:25.402721</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.447934</t>
+          <t>2025-03-31T00:39:25.402721</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.447934</t>
+          <t>2025-03-31T00:39:25.418344</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.447934</t>
+          <t>2025-03-31T00:39:25.418344</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.447934</t>
+          <t>2025-03-31T00:39:25.418344</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1458,7 +1458,7 @@
         <v>11818618</v>
       </c>
       <c r="H12" t="n">
-        <v>168140.2475565771</v>
+        <v>163610</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1487,11 +1487,11 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.418344</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>70.29023789216906</v>
+        <v>72.23652588472588</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.418344</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>["Porto-Novo"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.418344</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.418344</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.418344</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.463558</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.479183</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.479183</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.479183</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Western Europe</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.479183</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.479183</t>
+          <t>2025-03-31T00:39:25.434479</t>
         </is>
       </c>
       <c r="O25" t="n">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.479183</t>
+          <t>2025-03-31T00:39:25.450149</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.479183</t>
+          <t>2025-03-31T00:39:25.450149</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.479183</t>
+          <t>2025-03-31T00:39:25.450149</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2113079</v>
+        <v>2077132</v>
       </c>
       <c r="H29" t="n">
         <v>25713</v>
@@ -2983,11 +2983,11 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.495496</t>
+          <t>2025-03-31T00:39:25.450149</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>82.17940341461518</v>
+        <v>80.78139462528682</v>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>0.4732430732594475</v>
+        <v>0.4814330528825322</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.495496</t>
+          <t>2025-03-31T00:39:25.450149</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.495496</t>
+          <t>2025-03-31T00:39:25.450149</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.495496</t>
+          <t>2025-03-31T00:39:25.465776</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.495496</t>
+          <t>2025-03-31T00:39:25.465776</t>
         </is>
       </c>
       <c r="O33" t="n">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.495496</t>
+          <t>2025-03-31T00:39:25.465776</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.511175</t>
+          <t>2025-03-31T00:39:25.465776</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.511175</t>
+          <t>2025-03-31T00:39:25.465776</t>
         </is>
       </c>
       <c r="O36" t="n">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.511175</t>
+          <t>2025-03-31T00:39:25.465776</t>
         </is>
       </c>
       <c r="O37" t="n">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.511175</t>
+          <t>2025-03-31T00:39:25.465776</t>
         </is>
       </c>
       <c r="O38" t="n">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.511175</t>
+          <t>2025-03-31T00:39:25.465776</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.511175</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.526797</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.526797</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.531930</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.531930</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.531930</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.531930</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.531930</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O47" t="n">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.542473</t>
+          <t>2025-03-31T00:39:25.481418</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.542473</t>
+          <t>2025-03-31T00:39:25.497026</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.542473</t>
+          <t>2025-03-31T00:39:25.497026</t>
         </is>
       </c>
       <c r="O50" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.542473</t>
+          <t>2025-03-31T00:39:25.497026</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.542473</t>
+          <t>2025-03-31T00:39:25.497026</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.558126</t>
+          <t>2025-03-31T00:39:25.497026</t>
         </is>
       </c>
       <c r="O53" t="n">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.558126</t>
+          <t>2025-03-31T00:39:25.497026</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.558126</t>
+          <t>2025-03-31T00:39:25.497026</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.558126</t>
+          <t>2025-03-31T00:39:25.497026</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.558126</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O57" t="n">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.558126</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O58" t="n">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.558126</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O59" t="n">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.573838</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O60" t="n">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.573838</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O61" t="n">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.573838</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.573838</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.573838</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O64" t="n">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.573838</t>
+          <t>2025-03-31T00:39:25.512652</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.589389</t>
+          <t>2025-03-31T00:39:25.528276</t>
         </is>
       </c>
       <c r="O66" t="n">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.589389</t>
+          <t>2025-03-31T00:39:25.528276</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -6383,7 +6383,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1000</v>
+        <v>1026</v>
       </c>
       <c r="H68" t="n">
         <v>14000000</v>
@@ -6415,11 +6415,11 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.589389</t>
+          <t>2025-03-31T00:39:25.528276</t>
         </is>
       </c>
       <c r="O68" t="n">
-        <v>7.142857142857143e-05</v>
+        <v>7.328571428571429e-05</v>
       </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.589389</t>
+          <t>2025-03-31T00:39:25.528276</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.589389</t>
+          <t>2025-03-31T00:39:25.528276</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.589389</t>
+          <t>2025-03-31T00:39:25.528276</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.589389</t>
+          <t>2025-03-31T00:39:25.528276</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.605011</t>
+          <t>2025-03-31T00:39:25.528276</t>
         </is>
       </c>
       <c r="O73" t="n">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.605011</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O74" t="n">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.605011</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O75" t="n">
@@ -7086,7 +7086,7 @@
         <v>220892331</v>
       </c>
       <c r="H76" t="n">
-        <v>881912</v>
+        <v>897831.3548002663</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -7115,11 +7115,11 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.605011</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O76" t="n">
-        <v>250.4698099130072</v>
+        <v>246.0287556443606</v>
       </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.605011</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.605011</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O78" t="n">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.620642</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O79" t="n">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.620642</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O80" t="n">
@@ -7555,7 +7555,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.620642</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.620642</t>
+          <t>2025-03-31T00:39:25.543906</t>
         </is>
       </c>
       <c r="O82" t="n">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.620642</t>
+          <t>2025-03-31T00:39:25.559531</t>
         </is>
       </c>
       <c r="O83" t="n">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.620642</t>
+          <t>2025-03-31T00:39:25.559531</t>
         </is>
       </c>
       <c r="O84" t="n">
@@ -7907,7 +7907,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.636250</t>
+          <t>2025-03-31T00:39:25.559531</t>
         </is>
       </c>
       <c r="O85" t="n">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.636250</t>
+          <t>2025-03-31T00:39:25.559531</t>
         </is>
       </c>
       <c r="O86" t="n">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.636250</t>
+          <t>2025-03-31T00:39:25.559531</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -8171,7 +8171,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.636250</t>
+          <t>2025-03-31T00:39:25.559531</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.636250</t>
+          <t>2025-03-31T00:39:25.559531</t>
         </is>
       </c>
       <c r="O89" t="n">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.636250</t>
+          <t>2025-03-31T00:39:25.559531</t>
         </is>
       </c>
       <c r="O90" t="n">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.636250</t>
+          <t>2025-03-31T00:39:25.575148</t>
         </is>
       </c>
       <c r="O91" t="n">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.651880</t>
+          <t>2025-03-31T00:39:25.575148</t>
         </is>
       </c>
       <c r="O92" t="n">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.651880</t>
+          <t>2025-03-31T00:39:25.575148</t>
         </is>
       </c>
       <c r="O93" t="n">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.651880</t>
+          <t>2025-03-31T00:39:25.575148</t>
         </is>
       </c>
       <c r="O94" t="n">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.651880</t>
+          <t>2025-03-31T00:39:25.575148</t>
         </is>
       </c>
       <c r="O95" t="n">
@@ -8875,7 +8875,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.651880</t>
+          <t>2025-03-31T00:39:25.575148</t>
         </is>
       </c>
       <c r="O96" t="n">
@@ -8963,7 +8963,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.651880</t>
+          <t>2025-03-31T00:39:25.590776</t>
         </is>
       </c>
       <c r="O97" t="n">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.667507</t>
+          <t>2025-03-31T00:39:25.590776</t>
         </is>
       </c>
       <c r="O98" t="n">
@@ -9139,7 +9139,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.667507</t>
+          <t>2025-03-31T00:39:25.590776</t>
         </is>
       </c>
       <c r="O99" t="n">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.667507</t>
+          <t>2025-03-31T00:39:25.590776</t>
         </is>
       </c>
       <c r="O100" t="n">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.667507</t>
+          <t>2025-03-31T00:39:25.590776</t>
         </is>
       </c>
       <c r="O101" t="n">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.667507</t>
+          <t>2025-03-31T00:39:25.590776</t>
         </is>
       </c>
       <c r="O102" t="n">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.683135</t>
+          <t>2025-03-31T00:39:25.590776</t>
         </is>
       </c>
       <c r="O103" t="n">
@@ -9579,7 +9579,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.683135</t>
+          <t>2025-03-31T00:39:25.590776</t>
         </is>
       </c>
       <c r="O104" t="n">
@@ -9667,7 +9667,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.683135</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O105" t="n">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.683135</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O106" t="n">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.683135</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O107" t="n">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.683135</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O108" t="n">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.698749</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O109" t="n">
@@ -10107,7 +10107,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.698749</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O110" t="n">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.698749</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O111" t="n">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.698749</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O112" t="n">
@@ -10342,7 +10342,7 @@
         <v>3280815</v>
       </c>
       <c r="H113" t="n">
-        <v>51209</v>
+        <v>50180.73081625393</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -10371,11 +10371,11 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.698749</t>
+          <t>2025-03-31T00:39:25.606400</t>
         </is>
       </c>
       <c r="O113" t="n">
-        <v>64.06715616395556</v>
+        <v>65.3799764697193</v>
       </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.698749</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O114" t="n">
@@ -10547,7 +10547,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.698749</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O115" t="n">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.714382</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O116" t="n">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.714382</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O117" t="n">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.714382</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O118" t="n">
@@ -10899,7 +10899,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.714382</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O119" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.714382</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O120" t="n">
@@ -11075,7 +11075,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.714382</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O121" t="n">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.730003</t>
+          <t>2025-03-31T00:39:25.622033</t>
         </is>
       </c>
       <c r="O122" t="n">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.730003</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O123" t="n">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.730003</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O124" t="n">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.730003</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O125" t="n">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.730003</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O126" t="n">
@@ -11603,7 +11603,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.730003</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O127" t="n">
@@ -11671,7 +11671,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Yaren"]</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.745626</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O128" t="n">
@@ -11779,7 +11779,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.745626</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O129" t="n">
@@ -11835,7 +11835,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>510713</v>
+        <v>517714</v>
       </c>
       <c r="H130" t="n">
         <v>266000</v>
@@ -11867,11 +11867,11 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.745626</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O130" t="n">
-        <v>1.919973684210526</v>
+        <v>1.946293233082707</v>
       </c>
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
@@ -11885,7 +11885,7 @@
         </is>
       </c>
       <c r="U130" t="n">
-        <v>5.874140662172296</v>
+        <v>5.794705184715886</v>
       </c>
       <c r="V130" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.745626</t>
+          <t>2025-03-31T00:39:25.637651</t>
         </is>
       </c>
       <c r="O131" t="n">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.745626</t>
+          <t>2025-03-31T00:39:25.653274</t>
         </is>
       </c>
       <c r="O132" t="n">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.745626</t>
+          <t>2025-03-31T00:39:25.653274</t>
         </is>
       </c>
       <c r="O133" t="n">
@@ -12219,7 +12219,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.745626</t>
+          <t>2025-03-31T00:39:25.653274</t>
         </is>
       </c>
       <c r="O134" t="n">
@@ -12307,7 +12307,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.761252</t>
+          <t>2025-03-31T00:39:25.653274</t>
         </is>
       </c>
       <c r="O135" t="n">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.761252</t>
+          <t>2025-03-31T00:39:25.653274</t>
         </is>
       </c>
       <c r="O136" t="n">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.761252</t>
+          <t>2025-03-31T00:39:25.653274</t>
         </is>
       </c>
       <c r="O137" t="n">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.761252</t>
+          <t>2025-03-31T00:39:25.653274</t>
         </is>
       </c>
       <c r="O138" t="n">
@@ -12659,7 +12659,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.761252</t>
+          <t>2025-03-31T00:39:25.653274</t>
         </is>
       </c>
       <c r="O139" t="n">
@@ -12747,7 +12747,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.761252</t>
+          <t>2025-03-31T00:39:25.668899</t>
         </is>
       </c>
       <c r="O140" t="n">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.761252</t>
+          <t>2025-03-31T00:39:25.668899</t>
         </is>
       </c>
       <c r="O141" t="n">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.776884</t>
+          <t>2025-03-31T00:39:25.668899</t>
         </is>
       </c>
       <c r="O142" t="n">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.776884</t>
+          <t>2025-03-31T00:39:25.668899</t>
         </is>
       </c>
       <c r="O143" t="n">
@@ -13099,7 +13099,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.776884</t>
+          <t>2025-03-31T00:39:25.668899</t>
         </is>
       </c>
       <c r="O144" t="n">
@@ -13187,7 +13187,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.776884</t>
+          <t>2025-03-31T00:39:25.668899</t>
         </is>
       </c>
       <c r="O145" t="n">
@@ -13275,7 +13275,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.776884</t>
+          <t>2025-03-31T00:39:25.668899</t>
         </is>
       </c>
       <c r="O146" t="n">
@@ -13363,7 +13363,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.792500</t>
+          <t>2025-03-31T00:39:25.668899</t>
         </is>
       </c>
       <c r="O147" t="n">
@@ -13451,7 +13451,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.792500</t>
+          <t>2025-03-31T00:39:25.684525</t>
         </is>
       </c>
       <c r="O148" t="n">
@@ -13539,7 +13539,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.792500</t>
+          <t>2025-03-31T00:39:25.684525</t>
         </is>
       </c>
       <c r="O149" t="n">
@@ -13627,7 +13627,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.792500</t>
+          <t>2025-03-31T00:39:25.684525</t>
         </is>
       </c>
       <c r="O150" t="n">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.792500</t>
+          <t>2025-03-31T00:39:25.684525</t>
         </is>
       </c>
       <c r="O151" t="n">
@@ -13803,7 +13803,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.792500</t>
+          <t>2025-03-31T00:39:25.684525</t>
         </is>
       </c>
       <c r="O152" t="n">
@@ -13891,7 +13891,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.792500</t>
+          <t>2025-03-31T00:39:25.684525</t>
         </is>
       </c>
       <c r="O153" t="n">
@@ -13979,7 +13979,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.808131</t>
+          <t>2025-03-31T00:39:25.684525</t>
         </is>
       </c>
       <c r="O154" t="n">
@@ -14067,7 +14067,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.808131</t>
+          <t>2025-03-31T00:39:25.684525</t>
         </is>
       </c>
       <c r="O155" t="n">
@@ -14155,7 +14155,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.808131</t>
+          <t>2025-03-31T00:39:25.700149</t>
         </is>
       </c>
       <c r="O156" t="n">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.808131</t>
+          <t>2025-03-31T00:39:25.700149</t>
         </is>
       </c>
       <c r="O157" t="n">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.808131</t>
+          <t>2025-03-31T00:39:25.700149</t>
         </is>
       </c>
       <c r="O158" t="n">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.808131</t>
+          <t>2025-03-31T00:39:25.700149</t>
         </is>
       </c>
       <c r="O159" t="n">
@@ -14507,7 +14507,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.823751</t>
+          <t>2025-03-31T00:39:25.700149</t>
         </is>
       </c>
       <c r="O160" t="n">
@@ -14595,7 +14595,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.823751</t>
+          <t>2025-03-31T00:39:25.700149</t>
         </is>
       </c>
       <c r="O161" t="n">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.823751</t>
+          <t>2025-03-31T00:39:25.700149</t>
         </is>
       </c>
       <c r="O162" t="n">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.823751</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O163" t="n">
@@ -14859,7 +14859,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.823751</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O164" t="n">
@@ -14947,7 +14947,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.823751</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O165" t="n">
@@ -15035,7 +15035,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.823751</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O166" t="n">
@@ -15123,7 +15123,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.839381</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O167" t="n">
@@ -15211,7 +15211,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.839381</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O168" t="n">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.839381</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O169" t="n">
@@ -15387,7 +15387,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.839381</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O170" t="n">
@@ -15475,7 +15475,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.839381</t>
+          <t>2025-03-31T00:39:25.715777</t>
         </is>
       </c>
       <c r="O171" t="n">
@@ -15563,7 +15563,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.839381</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O172" t="n">
@@ -15651,7 +15651,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.855001</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O173" t="n">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.855001</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O174" t="n">
@@ -15839,7 +15839,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.855001</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O175" t="n">
@@ -15927,7 +15927,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.855001</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O176" t="n">
@@ -16015,7 +16015,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.855001</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O177" t="n">
@@ -16103,7 +16103,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.855001</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O178" t="n">
@@ -16191,7 +16191,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.855001</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O179" t="n">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.870626</t>
+          <t>2025-03-31T00:39:25.731399</t>
         </is>
       </c>
       <c r="O180" t="n">
@@ -16367,7 +16367,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.870626</t>
+          <t>2025-03-31T00:39:25.747086</t>
         </is>
       </c>
       <c r="O181" t="n">
@@ -16455,7 +16455,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.870626</t>
+          <t>2025-03-31T00:39:25.747086</t>
         </is>
       </c>
       <c r="O182" t="n">
@@ -16543,7 +16543,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.870626</t>
+          <t>2025-03-31T00:39:25.747086</t>
         </is>
       </c>
       <c r="O183" t="n">
@@ -16631,7 +16631,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.870626</t>
+          <t>2025-03-31T00:39:25.747086</t>
         </is>
       </c>
       <c r="O184" t="n">
@@ -16719,7 +16719,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.870626</t>
+          <t>2025-03-31T00:39:25.747086</t>
         </is>
       </c>
       <c r="O185" t="n">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.886263</t>
+          <t>2025-03-31T00:39:25.747086</t>
         </is>
       </c>
       <c r="O186" t="n">
@@ -16895,7 +16895,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.886263</t>
+          <t>2025-03-31T00:39:25.747086</t>
         </is>
       </c>
       <c r="O187" t="n">
@@ -16983,7 +16983,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.886263</t>
+          <t>2025-03-31T00:39:25.747086</t>
         </is>
       </c>
       <c r="O188" t="n">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.886263</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O189" t="n">
@@ -17159,7 +17159,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.886263</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O190" t="n">
@@ -17247,7 +17247,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.886263</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O191" t="n">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.901875</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O192" t="n">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.901875</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O193" t="n">
@@ -17511,7 +17511,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.901875</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O194" t="n">
@@ -17599,7 +17599,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.901875</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O195" t="n">
@@ -17687,7 +17687,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.901875</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O196" t="n">
@@ -17746,7 +17746,7 @@
         <v>20250834</v>
       </c>
       <c r="H197" t="n">
-        <v>1269488.150370289</v>
+        <v>1240192</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
@@ -17775,11 +17775,11 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.901875</t>
+          <t>2025-03-31T00:39:25.762651</t>
         </is>
       </c>
       <c r="O197" t="n">
-        <v>15.95196772344284</v>
+        <v>16.32878941325214</v>
       </c>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
@@ -17863,7 +17863,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.901875</t>
+          <t>2025-03-31T00:39:25.778274</t>
         </is>
       </c>
       <c r="O198" t="n">
@@ -17951,7 +17951,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.917936</t>
+          <t>2025-03-31T00:39:25.778274</t>
         </is>
       </c>
       <c r="O199" t="n">
@@ -18039,7 +18039,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.917936</t>
+          <t>2025-03-31T00:39:25.778274</t>
         </is>
       </c>
       <c r="O200" t="n">
@@ -18127,7 +18127,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.917936</t>
+          <t>2025-03-31T00:39:25.778274</t>
         </is>
       </c>
       <c r="O201" t="n">
@@ -18215,7 +18215,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.917936</t>
+          <t>2025-03-31T00:39:25.778274</t>
         </is>
       </c>
       <c r="O202" t="n">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.917936</t>
+          <t>2025-03-31T00:39:25.778274</t>
         </is>
       </c>
       <c r="O203" t="n">
@@ -18391,7 +18391,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.917936</t>
+          <t>2025-03-31T00:39:25.778274</t>
         </is>
       </c>
       <c r="O204" t="n">
@@ -18479,7 +18479,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.933713</t>
+          <t>2025-03-31T00:39:25.778274</t>
         </is>
       </c>
       <c r="O205" t="n">
@@ -18567,7 +18567,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.934236</t>
+          <t>2025-03-31T00:39:25.793899</t>
         </is>
       </c>
       <c r="O206" t="n">
@@ -18655,7 +18655,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.934236</t>
+          <t>2025-03-31T00:39:25.793899</t>
         </is>
       </c>
       <c r="O207" t="n">
@@ -18743,7 +18743,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.934236</t>
+          <t>2025-03-31T00:39:25.793899</t>
         </is>
       </c>
       <c r="O208" t="n">
@@ -18831,7 +18831,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.934236</t>
+          <t>2025-03-31T00:39:25.793899</t>
         </is>
       </c>
       <c r="O209" t="n">
@@ -18919,7 +18919,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.934236</t>
+          <t>2025-03-31T00:39:25.793899</t>
         </is>
       </c>
       <c r="O210" t="n">
@@ -19007,7 +19007,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.934236</t>
+          <t>2025-03-31T00:39:25.793899</t>
         </is>
       </c>
       <c r="O211" t="n">
@@ -19095,7 +19095,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.949257</t>
+          <t>2025-03-31T00:39:25.793899</t>
         </is>
       </c>
       <c r="O212" t="n">
@@ -19183,7 +19183,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.949257</t>
+          <t>2025-03-31T00:39:25.793899</t>
         </is>
       </c>
       <c r="O213" t="n">
@@ -19271,7 +19271,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.949257</t>
+          <t>2025-03-31T00:39:25.809529</t>
         </is>
       </c>
       <c r="O214" t="n">
@@ -19359,7 +19359,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.949257</t>
+          <t>2025-03-31T00:39:25.809529</t>
         </is>
       </c>
       <c r="O215" t="n">
@@ -19447,7 +19447,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.949257</t>
+          <t>2025-03-31T00:39:25.809529</t>
         </is>
       </c>
       <c r="O216" t="n">
@@ -19535,7 +19535,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.949257</t>
+          <t>2025-03-31T00:39:25.809529</t>
         </is>
       </c>
       <c r="O217" t="n">
@@ -19623,7 +19623,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.949257</t>
+          <t>2025-03-31T00:39:25.809529</t>
         </is>
       </c>
       <c r="O218" t="n">
@@ -19675,7 +19675,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Western Asia</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -19711,7 +19711,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.964926</t>
+          <t>2025-03-31T00:39:25.809529</t>
         </is>
       </c>
       <c r="O219" t="n">
@@ -19779,7 +19779,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Mal\u00e9"]</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19799,7 +19799,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.964926</t>
+          <t>2025-03-31T00:39:25.809529</t>
         </is>
       </c>
       <c r="O220" t="n">
@@ -19887,7 +19887,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.964926</t>
+          <t>2025-03-31T00:39:25.809529</t>
         </is>
       </c>
       <c r="O221" t="n">
@@ -19975,7 +19975,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.964926</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O222" t="n">
@@ -20063,7 +20063,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.964926</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O223" t="n">
@@ -20119,7 +20119,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>206185707</v>
+        <v>212559409</v>
       </c>
       <c r="H224" t="n">
         <v>8515767</v>
@@ -20151,11 +20151,11 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.964926</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O224" t="n">
-        <v>24.21222973808466</v>
+        <v>24.960688684883</v>
       </c>
       <c r="P224" t="inlineStr"/>
       <c r="Q224" t="inlineStr"/>
@@ -20169,7 +20169,7 @@
         </is>
       </c>
       <c r="U224" t="n">
-        <v>0.004849996707094736</v>
+        <v>0.004704567088817979</v>
       </c>
       <c r="V224" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.980536</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O225" t="n">
@@ -20327,7 +20327,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.980536</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O226" t="n">
@@ -20415,7 +20415,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.980536</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O227" t="n">
@@ -20503,7 +20503,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.980536</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O228" t="n">
@@ -20555,7 +20555,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="G229" t="n">
@@ -20591,7 +20591,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.980536</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O229" t="n">
@@ -20679,7 +20679,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.980536</t>
+          <t>2025-03-31T00:39:25.825157</t>
         </is>
       </c>
       <c r="O230" t="n">
@@ -20767,7 +20767,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.996161</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O231" t="n">
@@ -20855,7 +20855,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.996161</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O232" t="n">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.996161</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O233" t="n">
@@ -21031,7 +21031,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.996161</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O234" t="n">
@@ -21119,7 +21119,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.996161</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O235" t="n">
@@ -21207,7 +21207,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:38.996161</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O236" t="n">
@@ -21295,7 +21295,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.011786</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O237" t="n">
@@ -21383,7 +21383,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.011786</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O238" t="n">
@@ -21471,7 +21471,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.011786</t>
+          <t>2025-03-31T00:39:25.840774</t>
         </is>
       </c>
       <c r="O239" t="n">
@@ -21559,7 +21559,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.011786</t>
+          <t>2025-03-31T00:39:25.856399</t>
         </is>
       </c>
       <c r="O240" t="n">
@@ -21647,7 +21647,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.011786</t>
+          <t>2025-03-31T00:39:25.856399</t>
         </is>
       </c>
       <c r="O241" t="n">
@@ -21735,7 +21735,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.011786</t>
+          <t>2025-03-31T00:39:25.856399</t>
         </is>
       </c>
       <c r="O242" t="n">
@@ -21823,7 +21823,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.011786</t>
+          <t>2025-03-31T00:39:25.856399</t>
         </is>
       </c>
       <c r="O243" t="n">
@@ -21911,7 +21911,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.027412</t>
+          <t>2025-03-31T00:39:25.856399</t>
         </is>
       </c>
       <c r="O244" t="n">
@@ -21999,7 +21999,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.027412</t>
+          <t>2025-03-31T00:39:25.856399</t>
         </is>
       </c>
       <c r="O245" t="n">
@@ -22087,7 +22087,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.027412</t>
+          <t>2025-03-31T00:39:25.856399</t>
         </is>
       </c>
       <c r="O246" t="n">
@@ -22175,7 +22175,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.027412</t>
+          <t>2025-03-31T00:39:25.856399</t>
         </is>
       </c>
       <c r="O247" t="n">
@@ -22263,7 +22263,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.027412</t>
+          <t>2025-03-31T00:39:25.872025</t>
         </is>
       </c>
       <c r="O248" t="n">
@@ -22351,7 +22351,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.027412</t>
+          <t>2025-03-31T00:39:25.872025</t>
         </is>
       </c>
       <c r="O249" t="n">
@@ -22439,7 +22439,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.027412</t>
+          <t>2025-03-31T00:39:25.872025</t>
         </is>
       </c>
       <c r="O250" t="n">
@@ -22527,7 +22527,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-03-30T23:30:39.043044</t>
+          <t>2025-03-31T00:39:25.872025</t>
         </is>
       </c>
       <c r="O251" t="n">

--- a/src/static/xlsx/enriched_data.xlsx
+++ b/src/static/xlsx/enriched_data.xlsx
@@ -607,7 +607,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.402721</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.402721</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.402721</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -851,7 +851,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Freetown"]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.402721</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -959,7 +959,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.402721</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.402721</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.402721</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Caribbean</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.418344</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.418344</t>
+          <t>2025-03-31T00:48:34.412194</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.418344</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.418344</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.418344</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Porto-Novo"]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.418344</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.418344</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.418344</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.427804</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Western Europe</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.434479</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O25" t="n">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.450149</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.450149</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.450149</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.450149</t>
+          <t>2025-03-31T00:48:34.443426</t>
         </is>
       </c>
       <c r="O29" t="n">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.450149</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.450149</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.465776</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.465776</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O33" t="n">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.465776</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.465776</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.465776</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O36" t="n">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.465776</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O37" t="n">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.465776</t>
+          <t>2025-03-31T00:48:34.459052</t>
         </is>
       </c>
       <c r="O38" t="n">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.465776</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>106766</v>
+        <v>109436</v>
       </c>
       <c r="H47" t="n">
         <v>180</v>
@@ -4567,11 +4567,11 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.474676</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>593.1444444444444</v>
+        <v>607.9777777777778</v>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="U47" t="n">
-        <v>18.73255530786955</v>
+        <v>18.27552176614642</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.481418</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.497026</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.497026</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O50" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.497026</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.497026</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.497026</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O53" t="n">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.497026</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.497026</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.497026</t>
+          <t>2025-03-31T00:48:34.490306</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O57" t="n">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O58" t="n">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O59" t="n">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O60" t="n">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O61" t="n">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O64" t="n">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.512652</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.528276</t>
+          <t>2025-03-31T00:48:34.505932</t>
         </is>
       </c>
       <c r="O66" t="n">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.528276</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -6383,7 +6383,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1026</v>
+        <v>1000</v>
       </c>
       <c r="H68" t="n">
         <v>14000000</v>
@@ -6415,11 +6415,11 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.528276</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O68" t="n">
-        <v>7.328571428571429e-05</v>
+        <v>7.142857142857143e-05</v>
       </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.528276</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.528276</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.528276</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.528276</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.528276</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O73" t="n">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O74" t="n">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.522110</t>
         </is>
       </c>
       <c r="O75" t="n">
@@ -7086,7 +7086,7 @@
         <v>220892331</v>
       </c>
       <c r="H76" t="n">
-        <v>897831.3548002663</v>
+        <v>881912</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -7115,11 +7115,11 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O76" t="n">
-        <v>246.0287556443606</v>
+        <v>250.4698099130072</v>
       </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O78" t="n">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O79" t="n">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O80" t="n">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>["Mamoudzou"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7555,7 +7555,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.543906</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O82" t="n">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.559531</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O83" t="n">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.559531</t>
+          <t>2025-03-31T00:48:34.537143</t>
         </is>
       </c>
       <c r="O84" t="n">
@@ -7907,7 +7907,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.559531</t>
+          <t>2025-03-31T00:48:34.552812</t>
         </is>
       </c>
       <c r="O85" t="n">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.559531</t>
+          <t>2025-03-31T00:48:34.552812</t>
         </is>
       </c>
       <c r="O86" t="n">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.559531</t>
+          <t>2025-03-31T00:48:34.552812</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -8171,7 +8171,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.559531</t>
+          <t>2025-03-31T00:48:34.552812</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.559531</t>
+          <t>2025-03-31T00:48:34.552812</t>
         </is>
       </c>
       <c r="O89" t="n">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.559531</t>
+          <t>2025-03-31T00:48:34.552812</t>
         </is>
       </c>
       <c r="O90" t="n">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.575148</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O91" t="n">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.575148</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O92" t="n">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.575148</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O93" t="n">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.575148</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O94" t="n">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.575148</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O95" t="n">
@@ -8875,7 +8875,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.575148</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O96" t="n">
@@ -8963,7 +8963,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.590776</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O97" t="n">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.590776</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O98" t="n">
@@ -9139,7 +9139,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.590776</t>
+          <t>2025-03-31T00:48:34.568435</t>
         </is>
       </c>
       <c r="O99" t="n">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.590776</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O100" t="n">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.590776</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O101" t="n">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.590776</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O102" t="n">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.590776</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O103" t="n">
@@ -9579,7 +9579,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.590776</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O104" t="n">
@@ -9667,7 +9667,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O105" t="n">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O106" t="n">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O107" t="n">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.584062</t>
         </is>
       </c>
       <c r="O108" t="n">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O109" t="n">
@@ -10107,7 +10107,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O110" t="n">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O111" t="n">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O112" t="n">
@@ -10342,7 +10342,7 @@
         <v>3280815</v>
       </c>
       <c r="H113" t="n">
-        <v>50180.73081625393</v>
+        <v>51209</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -10371,11 +10371,11 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.606400</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O113" t="n">
-        <v>65.3799764697193</v>
+        <v>64.06715616395556</v>
       </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O114" t="n">
@@ -10547,7 +10547,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O115" t="n">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O116" t="n">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.599688</t>
         </is>
       </c>
       <c r="O117" t="n">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O118" t="n">
@@ -10899,7 +10899,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O119" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O120" t="n">
@@ -11075,7 +11075,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O121" t="n">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.622033</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O122" t="n">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O123" t="n">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O124" t="n">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O125" t="n">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.615316</t>
         </is>
       </c>
       <c r="O126" t="n">
@@ -11603,7 +11603,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O127" t="n">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O128" t="n">
@@ -11779,7 +11779,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O129" t="n">
@@ -11835,7 +11835,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>517714</v>
+        <v>510713</v>
       </c>
       <c r="H130" t="n">
         <v>266000</v>
@@ -11867,11 +11867,11 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O130" t="n">
-        <v>1.946293233082707</v>
+        <v>1.919973684210526</v>
       </c>
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
@@ -11885,7 +11885,7 @@
         </is>
       </c>
       <c r="U130" t="n">
-        <v>5.794705184715886</v>
+        <v>5.874140662172296</v>
       </c>
       <c r="V130" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.637651</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O131" t="n">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.653274</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O132" t="n">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.653274</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O133" t="n">
@@ -12190,7 +12190,7 @@
         <v>69799978</v>
       </c>
       <c r="H134" t="n">
-        <v>513120</v>
+        <v>513102.2526792237</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -12219,11 +12219,11 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.653274</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O134" t="n">
-        <v>136.030515279077</v>
+        <v>136.0352203396715</v>
       </c>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
@@ -12307,7 +12307,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.653274</t>
+          <t>2025-03-31T00:48:34.630937</t>
         </is>
       </c>
       <c r="O135" t="n">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.653274</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O136" t="n">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.653274</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O137" t="n">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.653274</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O138" t="n">
@@ -12659,7 +12659,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.653274</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O139" t="n">
@@ -12747,7 +12747,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.668899</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O140" t="n">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.668899</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O141" t="n">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.668899</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O142" t="n">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.668899</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O143" t="n">
@@ -13099,7 +13099,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.668899</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O144" t="n">
@@ -13187,7 +13187,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.668899</t>
+          <t>2025-03-31T00:48:34.646569</t>
         </is>
       </c>
       <c r="O145" t="n">
@@ -13275,7 +13275,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.668899</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O146" t="n">
@@ -13363,7 +13363,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.668899</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O147" t="n">
@@ -13451,7 +13451,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.684525</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O148" t="n">
@@ -13539,7 +13539,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.684525</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O149" t="n">
@@ -13627,7 +13627,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.684525</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O150" t="n">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.684525</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O151" t="n">
@@ -13803,7 +13803,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.684525</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O152" t="n">
@@ -13891,7 +13891,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.684525</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O153" t="n">
@@ -13979,7 +13979,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.684525</t>
+          <t>2025-03-31T00:48:34.662194</t>
         </is>
       </c>
       <c r="O154" t="n">
@@ -14067,7 +14067,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.684525</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O155" t="n">
@@ -14155,7 +14155,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.700149</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O156" t="n">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.700149</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O157" t="n">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.700149</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O158" t="n">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.700149</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O159" t="n">
@@ -14507,7 +14507,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.700149</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O160" t="n">
@@ -14595,7 +14595,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.700149</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O161" t="n">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.700149</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O162" t="n">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.677812</t>
         </is>
       </c>
       <c r="O163" t="n">
@@ -14859,7 +14859,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O164" t="n">
@@ -14947,7 +14947,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O165" t="n">
@@ -15035,7 +15035,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O166" t="n">
@@ -15123,7 +15123,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O167" t="n">
@@ -15211,7 +15211,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O168" t="n">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O169" t="n">
@@ -15387,7 +15387,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O170" t="n">
@@ -15475,7 +15475,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.715777</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O171" t="n">
@@ -15563,7 +15563,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.693440</t>
         </is>
       </c>
       <c r="O172" t="n">
@@ -15651,7 +15651,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O173" t="n">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O174" t="n">
@@ -15839,7 +15839,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O175" t="n">
@@ -15927,7 +15927,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O176" t="n">
@@ -16015,7 +16015,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O177" t="n">
@@ -16103,7 +16103,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O178" t="n">
@@ -16191,7 +16191,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O179" t="n">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.731399</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O180" t="n">
@@ -16367,7 +16367,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.747086</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O181" t="n">
@@ -16455,7 +16455,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.747086</t>
+          <t>2025-03-31T00:48:34.709060</t>
         </is>
       </c>
       <c r="O182" t="n">
@@ -16543,7 +16543,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.747086</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O183" t="n">
@@ -16631,7 +16631,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.747086</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O184" t="n">
@@ -16719,7 +16719,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.747086</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O185" t="n">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.747086</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O186" t="n">
@@ -16895,7 +16895,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.747086</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O187" t="n">
@@ -16983,7 +16983,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.747086</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O188" t="n">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O189" t="n">
@@ -17159,7 +17159,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O190" t="n">
@@ -17247,7 +17247,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.724697</t>
         </is>
       </c>
       <c r="O191" t="n">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O192" t="n">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O193" t="n">
@@ -17511,7 +17511,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O194" t="n">
@@ -17599,7 +17599,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O195" t="n">
@@ -17687,7 +17687,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O196" t="n">
@@ -17775,7 +17775,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.762651</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O197" t="n">
@@ -17863,7 +17863,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.778274</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O198" t="n">
@@ -17951,7 +17951,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.778274</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O199" t="n">
@@ -18039,7 +18039,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.778274</t>
+          <t>2025-03-31T00:48:34.740314</t>
         </is>
       </c>
       <c r="O200" t="n">
@@ -18127,7 +18127,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.778274</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O201" t="n">
@@ -18215,7 +18215,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.778274</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O202" t="n">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.778274</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O203" t="n">
@@ -18391,7 +18391,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.778274</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O204" t="n">
@@ -18479,7 +18479,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.778274</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O205" t="n">
@@ -18567,7 +18567,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.793899</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O206" t="n">
@@ -18655,7 +18655,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.793899</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O207" t="n">
@@ -18743,7 +18743,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.793899</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O208" t="n">
@@ -18831,7 +18831,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.793899</t>
+          <t>2025-03-31T00:48:34.755943</t>
         </is>
       </c>
       <c r="O209" t="n">
@@ -18919,7 +18919,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.793899</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O210" t="n">
@@ -19007,7 +19007,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.793899</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O211" t="n">
@@ -19095,7 +19095,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.793899</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O212" t="n">
@@ -19151,7 +19151,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>9537642</v>
+        <v>9294356</v>
       </c>
       <c r="H213" t="n">
         <v>143100</v>
@@ -19183,11 +19183,11 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.793899</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O213" t="n">
-        <v>66.65018867924529</v>
+        <v>64.95007686932215</v>
       </c>
       <c r="P213" t="inlineStr"/>
       <c r="Q213" t="inlineStr"/>
@@ -19201,7 +19201,7 @@
         </is>
       </c>
       <c r="U213" t="n">
-        <v>0.2096954362514341</v>
+        <v>0.2151843548923669</v>
       </c>
       <c r="V213" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>["Valletta"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -19271,7 +19271,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.809529</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O214" t="n">
@@ -19359,7 +19359,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.809529</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O215" t="n">
@@ -19447,7 +19447,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.809529</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O216" t="n">
@@ -19535,7 +19535,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.809529</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O217" t="n">
@@ -19623,7 +19623,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.809529</t>
+          <t>2025-03-31T00:48:34.771570</t>
         </is>
       </c>
       <c r="O218" t="n">
@@ -19675,7 +19675,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Western Asia</t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -19711,7 +19711,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.809529</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O219" t="n">
@@ -19799,7 +19799,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.809529</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O220" t="n">
@@ -19887,7 +19887,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.809529</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O221" t="n">
@@ -19975,7 +19975,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O222" t="n">
@@ -20063,7 +20063,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O223" t="n">
@@ -20151,7 +20151,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O224" t="n">
@@ -20239,7 +20239,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O225" t="n">
@@ -20327,7 +20327,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O226" t="n">
@@ -20415,7 +20415,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.787194</t>
         </is>
       </c>
       <c r="O227" t="n">
@@ -20503,7 +20503,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O228" t="n">
@@ -20591,7 +20591,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O229" t="n">
@@ -20679,7 +20679,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.825157</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O230" t="n">
@@ -20767,7 +20767,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O231" t="n">
@@ -20855,7 +20855,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O232" t="n">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O233" t="n">
@@ -21031,7 +21031,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O234" t="n">
@@ -21119,7 +21119,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O235" t="n">
@@ -21207,7 +21207,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.802888</t>
         </is>
       </c>
       <c r="O236" t="n">
@@ -21295,7 +21295,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O237" t="n">
@@ -21383,7 +21383,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O238" t="n">
@@ -21471,7 +21471,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.840774</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O239" t="n">
@@ -21559,7 +21559,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.856399</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O240" t="n">
@@ -21618,7 +21618,7 @@
         <v>14862927</v>
       </c>
       <c r="H241" t="n">
-        <v>390757</v>
+        <v>388670.346818461</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
@@ -21647,11 +21647,11 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.856399</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O241" t="n">
-        <v>38.03623991380832</v>
+        <v>38.24044494688999</v>
       </c>
       <c r="P241" t="inlineStr"/>
       <c r="Q241" t="inlineStr"/>
@@ -21699,7 +21699,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Caribbean</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -21735,7 +21735,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.856399</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O242" t="n">
@@ -21823,7 +21823,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.856399</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O243" t="n">
@@ -21911,7 +21911,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.856399</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O244" t="n">
@@ -21999,7 +21999,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.856399</t>
+          <t>2025-03-31T00:48:34.818443</t>
         </is>
       </c>
       <c r="O245" t="n">
@@ -22087,7 +22087,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.856399</t>
+          <t>2025-03-31T00:48:34.834067</t>
         </is>
       </c>
       <c r="O246" t="n">
@@ -22175,7 +22175,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.856399</t>
+          <t>2025-03-31T00:48:34.834067</t>
         </is>
       </c>
       <c r="O247" t="n">
@@ -22263,7 +22263,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.872025</t>
+          <t>2025-03-31T00:48:34.834067</t>
         </is>
       </c>
       <c r="O248" t="n">
@@ -22351,7 +22351,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.872025</t>
+          <t>2025-03-31T00:48:34.834067</t>
         </is>
       </c>
       <c r="O249" t="n">
@@ -22439,7 +22439,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.872025</t>
+          <t>2025-03-31T00:48:34.834067</t>
         </is>
       </c>
       <c r="O250" t="n">
@@ -22527,7 +22527,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-03-31T00:39:25.872025</t>
+          <t>2025-03-31T00:48:34.834067</t>
         </is>
       </c>
       <c r="O251" t="n">

--- a/src/static/xlsx/enriched_data.xlsx
+++ b/src/static/xlsx/enriched_data.xlsx
@@ -607,7 +607,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.565222</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.565222</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.565222</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.565222</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -959,7 +959,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.581230</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.581230</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.581230</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Caribbean</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.581230</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.412194</t>
+          <t>2025-04-06T02:01:40.596907</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.596907</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.596907</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.596907</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.596907</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.612525</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.612525</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.612525</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.612525</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.612525</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.427804</t>
+          <t>2025-04-06T02:01:40.612525</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.628157</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.628157</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.628157</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.628157</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -2599,7 +2599,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6871287</v>
+        <v>7001762</v>
       </c>
       <c r="H25" t="n">
         <v>1759540</v>
@@ -2631,11 +2631,11 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.628157</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>3.905161007990725</v>
+        <v>3.979313911590529</v>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>0.1455331439364998</v>
+        <v>0.1428211927226318</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.628157</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.643775</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.643775</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.443426</t>
+          <t>2025-04-06T02:01:40.643775</t>
         </is>
       </c>
       <c r="O29" t="n">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.643775</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.643775</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Caribbean</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.643775</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.659408</t>
         </is>
       </c>
       <c r="O33" t="n">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.659408</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.659408</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.659408</t>
         </is>
       </c>
       <c r="O36" t="n">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.659408</t>
         </is>
       </c>
       <c r="O37" t="n">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.459052</t>
+          <t>2025-04-06T02:01:40.659408</t>
         </is>
       </c>
       <c r="O38" t="n">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.675026</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.675026</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.675026</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.675026</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.690652</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.690652</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.690652</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.690652</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>109436</v>
+        <v>106766</v>
       </c>
       <c r="H47" t="n">
         <v>180</v>
@@ -4567,11 +4567,11 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.474676</t>
+          <t>2025-04-06T02:01:40.706279</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>607.9777777777778</v>
+        <v>593.1444444444444</v>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="U47" t="n">
-        <v>18.27552176614642</v>
+        <v>18.73255530786955</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.706279</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.706279</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.706279</t>
         </is>
       </c>
       <c r="O50" t="n">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Northern Europe</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.721905</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.721905</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -5066,7 +5066,7 @@
         <v>2072</v>
       </c>
       <c r="H53" t="n">
-        <v>135</v>
+        <v>133.505341239138</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -5095,11 +5095,11 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.721905</t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>15.34814814814815</v>
+        <v>15.51997830774862</v>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.721905</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.721905</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.490306</t>
+          <t>2025-04-06T02:01:40.721905</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.737527</t>
         </is>
       </c>
       <c r="O57" t="n">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.737527</t>
         </is>
       </c>
       <c r="O58" t="n">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.737527</t>
         </is>
       </c>
       <c r="O59" t="n">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.737527</t>
         </is>
       </c>
       <c r="O60" t="n">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.753151</t>
         </is>
       </c>
       <c r="O61" t="n">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.753151</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.753151</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.753151</t>
         </is>
       </c>
       <c r="O64" t="n">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.753151</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.505932</t>
+          <t>2025-04-06T02:01:40.753151</t>
         </is>
       </c>
       <c r="O66" t="n">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.768779</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.768779</t>
         </is>
       </c>
       <c r="O68" t="n">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>["Amsterdam"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.768779</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.768779</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.784402</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.784402</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.784402</t>
         </is>
       </c>
       <c r="O73" t="n">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.784402</t>
         </is>
       </c>
       <c r="O74" t="n">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.522110</t>
+          <t>2025-04-06T02:01:40.784402</t>
         </is>
       </c>
       <c r="O75" t="n">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.800026</t>
         </is>
       </c>
       <c r="O76" t="n">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.800026</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.800026</t>
         </is>
       </c>
       <c r="O78" t="n">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.800026</t>
         </is>
       </c>
       <c r="O79" t="n">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.815654</t>
         </is>
       </c>
       <c r="O80" t="n">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Mamoudzou"]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7555,7 +7555,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.815654</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.815654</t>
         </is>
       </c>
       <c r="O82" t="n">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.815654</t>
         </is>
       </c>
       <c r="O83" t="n">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.537143</t>
+          <t>2025-04-06T02:01:40.815654</t>
         </is>
       </c>
       <c r="O84" t="n">
@@ -7907,7 +7907,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.552812</t>
+          <t>2025-04-06T02:01:40.831294</t>
         </is>
       </c>
       <c r="O85" t="n">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.552812</t>
+          <t>2025-04-06T02:01:40.831294</t>
         </is>
       </c>
       <c r="O86" t="n">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.552812</t>
+          <t>2025-04-06T02:01:40.831294</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -8171,7 +8171,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.552812</t>
+          <t>2025-04-06T02:01:40.831294</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.552812</t>
+          <t>2025-04-06T02:01:40.846901</t>
         </is>
       </c>
       <c r="O89" t="n">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>["Mbabane"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.552812</t>
+          <t>2025-04-06T02:01:40.846901</t>
         </is>
       </c>
       <c r="O90" t="n">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.846901</t>
         </is>
       </c>
       <c r="O91" t="n">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.846901</t>
         </is>
       </c>
       <c r="O92" t="n">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.846901</t>
         </is>
       </c>
       <c r="O93" t="n">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.862524</t>
         </is>
       </c>
       <c r="O94" t="n">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.862524</t>
         </is>
       </c>
       <c r="O95" t="n">
@@ -8875,7 +8875,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.862524</t>
         </is>
       </c>
       <c r="O96" t="n">
@@ -8963,7 +8963,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.862524</t>
         </is>
       </c>
       <c r="O97" t="n">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.862524</t>
         </is>
       </c>
       <c r="O98" t="n">
@@ -9139,7 +9139,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.568435</t>
+          <t>2025-04-06T02:01:40.862524</t>
         </is>
       </c>
       <c r="O99" t="n">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.878156</t>
         </is>
       </c>
       <c r="O100" t="n">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.878156</t>
         </is>
       </c>
       <c r="O101" t="n">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.878156</t>
         </is>
       </c>
       <c r="O102" t="n">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.878156</t>
         </is>
       </c>
       <c r="O103" t="n">
@@ -9579,7 +9579,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.878156</t>
         </is>
       </c>
       <c r="O104" t="n">
@@ -9667,7 +9667,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.893791</t>
         </is>
       </c>
       <c r="O105" t="n">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.893791</t>
         </is>
       </c>
       <c r="O106" t="n">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.893791</t>
         </is>
       </c>
       <c r="O107" t="n">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.584062</t>
+          <t>2025-04-06T02:01:40.893791</t>
         </is>
       </c>
       <c r="O108" t="n">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.893791</t>
         </is>
       </c>
       <c r="O109" t="n">
@@ -10107,7 +10107,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.909401</t>
         </is>
       </c>
       <c r="O110" t="n">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.909401</t>
         </is>
       </c>
       <c r="O111" t="n">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.909401</t>
         </is>
       </c>
       <c r="O112" t="n">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.909401</t>
         </is>
       </c>
       <c r="O113" t="n">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.909401</t>
         </is>
       </c>
       <c r="O114" t="n">
@@ -10547,7 +10547,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.925130</t>
         </is>
       </c>
       <c r="O115" t="n">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.925130</t>
         </is>
       </c>
       <c r="O116" t="n">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.599688</t>
+          <t>2025-04-06T02:01:40.925130</t>
         </is>
       </c>
       <c r="O117" t="n">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.925130</t>
         </is>
       </c>
       <c r="O118" t="n">
@@ -10899,7 +10899,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.925130</t>
         </is>
       </c>
       <c r="O119" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.925130</t>
         </is>
       </c>
       <c r="O120" t="n">
@@ -11075,7 +11075,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.940656</t>
         </is>
       </c>
       <c r="O121" t="n">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.940656</t>
         </is>
       </c>
       <c r="O122" t="n">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.940656</t>
         </is>
       </c>
       <c r="O123" t="n">
@@ -11307,7 +11307,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>366425</v>
+        <v>367830</v>
       </c>
       <c r="H124" t="n">
         <v>103000</v>
@@ -11339,11 +11339,11 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.940656</t>
         </is>
       </c>
       <c r="O124" t="n">
-        <v>3.55752427184466</v>
+        <v>3.571165048543689</v>
       </c>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
@@ -11357,7 +11357,7 @@
         </is>
       </c>
       <c r="U124" t="n">
-        <v>2.729071433444771</v>
+        <v>2.718647201152706</v>
       </c>
       <c r="V124" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.940656</t>
         </is>
       </c>
       <c r="O125" t="n">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.615316</t>
+          <t>2025-04-06T02:01:40.956275</t>
         </is>
       </c>
       <c r="O126" t="n">
@@ -11603,7 +11603,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.956275</t>
         </is>
       </c>
       <c r="O127" t="n">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.956275</t>
         </is>
       </c>
       <c r="O128" t="n">
@@ -11779,7 +11779,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.956275</t>
         </is>
       </c>
       <c r="O129" t="n">
@@ -11867,7 +11867,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.956275</t>
         </is>
       </c>
       <c r="O130" t="n">
@@ -11955,7 +11955,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.971904</t>
         </is>
       </c>
       <c r="O131" t="n">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.971904</t>
         </is>
       </c>
       <c r="O132" t="n">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.971904</t>
         </is>
       </c>
       <c r="O133" t="n">
@@ -12190,7 +12190,7 @@
         <v>69799978</v>
       </c>
       <c r="H134" t="n">
-        <v>513102.2526792237</v>
+        <v>513120</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -12219,11 +12219,11 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.971904</t>
         </is>
       </c>
       <c r="O134" t="n">
-        <v>136.0352203396715</v>
+        <v>136.030515279077</v>
       </c>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
@@ -12307,7 +12307,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.630937</t>
+          <t>2025-04-06T02:01:40.971904</t>
         </is>
       </c>
       <c r="O135" t="n">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:40.987533</t>
         </is>
       </c>
       <c r="O136" t="n">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:40.987533</t>
         </is>
       </c>
       <c r="O137" t="n">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:40.987533</t>
         </is>
       </c>
       <c r="O138" t="n">
@@ -12659,7 +12659,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:40.987533</t>
         </is>
       </c>
       <c r="O139" t="n">
@@ -12747,7 +12747,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:40.987533</t>
         </is>
       </c>
       <c r="O140" t="n">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:41.003152</t>
         </is>
       </c>
       <c r="O141" t="n">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:41.003152</t>
         </is>
       </c>
       <c r="O142" t="n">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:41.003152</t>
         </is>
       </c>
       <c r="O143" t="n">
@@ -13099,7 +13099,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:41.003152</t>
         </is>
       </c>
       <c r="O144" t="n">
@@ -13187,7 +13187,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.646569</t>
+          <t>2025-04-06T02:01:41.003152</t>
         </is>
       </c>
       <c r="O145" t="n">
@@ -13275,7 +13275,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.018777</t>
         </is>
       </c>
       <c r="O146" t="n">
@@ -13363,7 +13363,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.018777</t>
         </is>
       </c>
       <c r="O147" t="n">
@@ -13451,7 +13451,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.018777</t>
         </is>
       </c>
       <c r="O148" t="n">
@@ -13539,7 +13539,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.018777</t>
         </is>
       </c>
       <c r="O149" t="n">
@@ -13627,7 +13627,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.018777</t>
         </is>
       </c>
       <c r="O150" t="n">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.018777</t>
         </is>
       </c>
       <c r="O151" t="n">
@@ -13803,7 +13803,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.034406</t>
         </is>
       </c>
       <c r="O152" t="n">
@@ -13891,7 +13891,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.034406</t>
         </is>
       </c>
       <c r="O153" t="n">
@@ -13979,7 +13979,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.662194</t>
+          <t>2025-04-06T02:01:41.034406</t>
         </is>
       </c>
       <c r="O154" t="n">
@@ -14067,7 +14067,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.034406</t>
         </is>
       </c>
       <c r="O155" t="n">
@@ -14155,7 +14155,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.050036</t>
         </is>
       </c>
       <c r="O156" t="n">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.050036</t>
         </is>
       </c>
       <c r="O157" t="n">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.050036</t>
         </is>
       </c>
       <c r="O158" t="n">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.050036</t>
         </is>
       </c>
       <c r="O159" t="n">
@@ -14507,7 +14507,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.050036</t>
         </is>
       </c>
       <c r="O160" t="n">
@@ -14595,7 +14595,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.050036</t>
         </is>
       </c>
       <c r="O161" t="n">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.065652</t>
         </is>
       </c>
       <c r="O162" t="n">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.677812</t>
+          <t>2025-04-06T02:01:41.065652</t>
         </is>
       </c>
       <c r="O163" t="n">
@@ -14859,7 +14859,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.065652</t>
         </is>
       </c>
       <c r="O164" t="n">
@@ -14947,7 +14947,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.065652</t>
         </is>
       </c>
       <c r="O165" t="n">
@@ -15035,7 +15035,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.065652</t>
         </is>
       </c>
       <c r="O166" t="n">
@@ -15123,7 +15123,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.082017</t>
         </is>
       </c>
       <c r="O167" t="n">
@@ -15211,7 +15211,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.082017</t>
         </is>
       </c>
       <c r="O168" t="n">
@@ -15270,7 +15270,7 @@
         <v>97338583</v>
       </c>
       <c r="H169" t="n">
-        <v>331212</v>
+        <v>323639.1380288619</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -15299,11 +15299,11 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.082017</t>
         </is>
       </c>
       <c r="O169" t="n">
-        <v>293.8860397570136</v>
+        <v>300.7627062438889</v>
       </c>
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
@@ -15387,7 +15387,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.082017</t>
         </is>
       </c>
       <c r="O170" t="n">
@@ -15475,7 +15475,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.082017</t>
         </is>
       </c>
       <c r="O171" t="n">
@@ -15563,7 +15563,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.693440</t>
+          <t>2025-04-06T02:01:41.097711</t>
         </is>
       </c>
       <c r="O172" t="n">
@@ -15651,7 +15651,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.097711</t>
         </is>
       </c>
       <c r="O173" t="n">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.097711</t>
         </is>
       </c>
       <c r="O174" t="n">
@@ -15839,7 +15839,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.097711</t>
         </is>
       </c>
       <c r="O175" t="n">
@@ -15927,7 +15927,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.113383</t>
         </is>
       </c>
       <c r="O176" t="n">
@@ -16015,7 +16015,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.113383</t>
         </is>
       </c>
       <c r="O177" t="n">
@@ -16103,7 +16103,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.113383</t>
         </is>
       </c>
       <c r="O178" t="n">
@@ -16191,7 +16191,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.113383</t>
         </is>
       </c>
       <c r="O179" t="n">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.113383</t>
         </is>
       </c>
       <c r="O180" t="n">
@@ -16367,7 +16367,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.113383</t>
         </is>
       </c>
       <c r="O181" t="n">
@@ -16455,7 +16455,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.709060</t>
+          <t>2025-04-06T02:01:41.129537</t>
         </is>
       </c>
       <c r="O182" t="n">
@@ -16543,7 +16543,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.129537</t>
         </is>
       </c>
       <c r="O183" t="n">
@@ -16631,7 +16631,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.129537</t>
         </is>
       </c>
       <c r="O184" t="n">
@@ -16719,7 +16719,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.129537</t>
         </is>
       </c>
       <c r="O185" t="n">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.129537</t>
         </is>
       </c>
       <c r="O186" t="n">
@@ -16895,7 +16895,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.129537</t>
         </is>
       </c>
       <c r="O187" t="n">
@@ -16983,7 +16983,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.145228</t>
         </is>
       </c>
       <c r="O188" t="n">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.145228</t>
         </is>
       </c>
       <c r="O189" t="n">
@@ -17159,7 +17159,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.145228</t>
         </is>
       </c>
       <c r="O190" t="n">
@@ -17247,7 +17247,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.724697</t>
+          <t>2025-04-06T02:01:41.145228</t>
         </is>
       </c>
       <c r="O191" t="n">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.145228</t>
         </is>
       </c>
       <c r="O192" t="n">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.161285</t>
         </is>
       </c>
       <c r="O193" t="n">
@@ -17511,7 +17511,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.161285</t>
         </is>
       </c>
       <c r="O194" t="n">
@@ -17599,7 +17599,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.161285</t>
         </is>
       </c>
       <c r="O195" t="n">
@@ -17687,7 +17687,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.161285</t>
         </is>
       </c>
       <c r="O196" t="n">
@@ -17775,7 +17775,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.161285</t>
         </is>
       </c>
       <c r="O197" t="n">
@@ -17863,7 +17863,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.161285</t>
         </is>
       </c>
       <c r="O198" t="n">
@@ -17951,7 +17951,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.176965</t>
         </is>
       </c>
       <c r="O199" t="n">
@@ -18039,7 +18039,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.740314</t>
+          <t>2025-04-06T02:01:41.176965</t>
         </is>
       </c>
       <c r="O200" t="n">
@@ -18127,7 +18127,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.176965</t>
         </is>
       </c>
       <c r="O201" t="n">
@@ -18215,7 +18215,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.176965</t>
         </is>
       </c>
       <c r="O202" t="n">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.176965</t>
         </is>
       </c>
       <c r="O203" t="n">
@@ -18391,7 +18391,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.192582</t>
         </is>
       </c>
       <c r="O204" t="n">
@@ -18479,7 +18479,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.192582</t>
         </is>
       </c>
       <c r="O205" t="n">
@@ -18567,7 +18567,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.192582</t>
         </is>
       </c>
       <c r="O206" t="n">
@@ -18655,7 +18655,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.192582</t>
         </is>
       </c>
       <c r="O207" t="n">
@@ -18743,7 +18743,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.192582</t>
         </is>
       </c>
       <c r="O208" t="n">
@@ -18831,7 +18831,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.755943</t>
+          <t>2025-04-06T02:01:41.208207</t>
         </is>
       </c>
       <c r="O209" t="n">
@@ -18919,7 +18919,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.208207</t>
         </is>
       </c>
       <c r="O210" t="n">
@@ -19007,7 +19007,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.208207</t>
         </is>
       </c>
       <c r="O211" t="n">
@@ -19095,7 +19095,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.208207</t>
         </is>
       </c>
       <c r="O212" t="n">
@@ -19151,7 +19151,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>9294356</v>
+        <v>9537642</v>
       </c>
       <c r="H213" t="n">
         <v>143100</v>
@@ -19183,11 +19183,11 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.208207</t>
         </is>
       </c>
       <c r="O213" t="n">
-        <v>64.95007686932215</v>
+        <v>66.65018867924529</v>
       </c>
       <c r="P213" t="inlineStr"/>
       <c r="Q213" t="inlineStr"/>
@@ -19201,7 +19201,7 @@
         </is>
       </c>
       <c r="U213" t="n">
-        <v>0.2151843548923669</v>
+        <v>0.2096954362514341</v>
       </c>
       <c r="V213" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Valletta"]</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -19271,7 +19271,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.208207</t>
         </is>
       </c>
       <c r="O214" t="n">
@@ -19359,7 +19359,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.223832</t>
         </is>
       </c>
       <c r="O215" t="n">
@@ -19447,7 +19447,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.223832</t>
         </is>
       </c>
       <c r="O216" t="n">
@@ -19535,7 +19535,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.223832</t>
         </is>
       </c>
       <c r="O217" t="n">
@@ -19623,7 +19623,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.771570</t>
+          <t>2025-04-06T02:01:41.223832</t>
         </is>
       </c>
       <c r="O218" t="n">
@@ -19711,7 +19711,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.223832</t>
         </is>
       </c>
       <c r="O219" t="n">
@@ -19799,7 +19799,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.223832</t>
         </is>
       </c>
       <c r="O220" t="n">
@@ -19887,7 +19887,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.239460</t>
         </is>
       </c>
       <c r="O221" t="n">
@@ -19975,7 +19975,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.239460</t>
         </is>
       </c>
       <c r="O222" t="n">
@@ -20063,7 +20063,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.239460</t>
         </is>
       </c>
       <c r="O223" t="n">
@@ -20151,7 +20151,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.239460</t>
         </is>
       </c>
       <c r="O224" t="n">
@@ -20239,7 +20239,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.239460</t>
         </is>
       </c>
       <c r="O225" t="n">
@@ -20327,7 +20327,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.255082</t>
         </is>
       </c>
       <c r="O226" t="n">
@@ -20415,7 +20415,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.787194</t>
+          <t>2025-04-06T02:01:41.255082</t>
         </is>
       </c>
       <c r="O227" t="n">
@@ -20503,7 +20503,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.255082</t>
         </is>
       </c>
       <c r="O228" t="n">
@@ -20591,7 +20591,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.255082</t>
         </is>
       </c>
       <c r="O229" t="n">
@@ -20679,7 +20679,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.270706</t>
         </is>
       </c>
       <c r="O230" t="n">
@@ -20767,7 +20767,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.270706</t>
         </is>
       </c>
       <c r="O231" t="n">
@@ -20855,7 +20855,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.270706</t>
         </is>
       </c>
       <c r="O232" t="n">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.270706</t>
         </is>
       </c>
       <c r="O233" t="n">
@@ -21031,7 +21031,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.270706</t>
         </is>
       </c>
       <c r="O234" t="n">
@@ -21119,7 +21119,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.270706</t>
         </is>
       </c>
       <c r="O235" t="n">
@@ -21207,7 +21207,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.802888</t>
+          <t>2025-04-06T02:01:41.286332</t>
         </is>
       </c>
       <c r="O236" t="n">
@@ -21295,7 +21295,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.286332</t>
         </is>
       </c>
       <c r="O237" t="n">
@@ -21383,7 +21383,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.286332</t>
         </is>
       </c>
       <c r="O238" t="n">
@@ -21471,7 +21471,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.286332</t>
         </is>
       </c>
       <c r="O239" t="n">
@@ -21559,7 +21559,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.286332</t>
         </is>
       </c>
       <c r="O240" t="n">
@@ -21618,7 +21618,7 @@
         <v>14862927</v>
       </c>
       <c r="H241" t="n">
-        <v>388670.346818461</v>
+        <v>390757</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
@@ -21647,11 +21647,11 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.301959</t>
         </is>
       </c>
       <c r="O241" t="n">
-        <v>38.24044494688999</v>
+        <v>38.03623991380832</v>
       </c>
       <c r="P241" t="inlineStr"/>
       <c r="Q241" t="inlineStr"/>
@@ -21699,7 +21699,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Caribbean</t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -21735,7 +21735,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.301959</t>
         </is>
       </c>
       <c r="O242" t="n">
@@ -21823,7 +21823,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.301959</t>
         </is>
       </c>
       <c r="O243" t="n">
@@ -21911,7 +21911,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.301959</t>
         </is>
       </c>
       <c r="O244" t="n">
@@ -21999,7 +21999,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.818443</t>
+          <t>2025-04-06T02:01:41.301959</t>
         </is>
       </c>
       <c r="O245" t="n">
@@ -22087,7 +22087,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.834067</t>
+          <t>2025-04-06T02:01:41.317583</t>
         </is>
       </c>
       <c r="O246" t="n">
@@ -22175,7 +22175,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.834067</t>
+          <t>2025-04-06T02:01:41.317583</t>
         </is>
       </c>
       <c r="O247" t="n">
@@ -22263,7 +22263,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.834067</t>
+          <t>2025-04-06T02:01:41.317583</t>
         </is>
       </c>
       <c r="O248" t="n">
@@ -22351,7 +22351,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.834067</t>
+          <t>2025-04-06T02:01:41.317583</t>
         </is>
       </c>
       <c r="O249" t="n">
@@ -22439,7 +22439,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.834067</t>
+          <t>2025-04-06T02:01:41.317583</t>
         </is>
       </c>
       <c r="O250" t="n">
@@ -22527,7 +22527,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-03-31T00:48:34.834067</t>
+          <t>2025-04-06T02:01:41.317583</t>
         </is>
       </c>
       <c r="O251" t="n">

--- a/src/static/xlsx/enriched_data.xlsx
+++ b/src/static/xlsx/enriched_data.xlsx
@@ -607,7 +607,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.565222</t>
+          <t>2025-04-06T02:22:39.357084</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.565222</t>
+          <t>2025-04-06T02:22:39.357084</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.565222</t>
+          <t>2025-04-06T02:22:39.357084</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.565222</t>
+          <t>2025-04-06T02:22:39.357084</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -959,7 +959,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.581230</t>
+          <t>2025-04-06T02:22:39.357084</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.581230</t>
+          <t>2025-04-06T02:22:39.372697</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.581230</t>
+          <t>2025-04-06T02:22:39.372697</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.581230</t>
+          <t>2025-04-06T02:22:39.372697</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.596907</t>
+          <t>2025-04-06T02:22:39.372697</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.596907</t>
+          <t>2025-04-06T02:22:39.372697</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.596907</t>
+          <t>2025-04-06T02:22:39.372697</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.596907</t>
+          <t>2025-04-06T02:22:39.372697</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.596907</t>
+          <t>2025-04-06T02:22:39.389119</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.612525</t>
+          <t>2025-04-06T02:22:39.389119</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.612525</t>
+          <t>2025-04-06T02:22:39.389119</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.612525</t>
+          <t>2025-04-06T02:22:39.389119</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.612525</t>
+          <t>2025-04-06T02:22:39.389119</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.612525</t>
+          <t>2025-04-06T02:22:39.389119</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.612525</t>
+          <t>2025-04-06T02:22:39.389119</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.628157</t>
+          <t>2025-04-06T02:22:39.389119</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.628157</t>
+          <t>2025-04-06T02:22:39.404795</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.628157</t>
+          <t>2025-04-06T02:22:39.404795</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.628157</t>
+          <t>2025-04-06T02:22:39.404795</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -2599,7 +2599,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>7001762</v>
+        <v>6871287</v>
       </c>
       <c r="H25" t="n">
         <v>1759540</v>
@@ -2631,11 +2631,11 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.628157</t>
+          <t>2025-04-06T02:22:39.420421</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>3.979313911590529</v>
+        <v>3.905161007990725</v>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>0.1428211927226318</v>
+        <v>0.1455331439364998</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.628157</t>
+          <t>2025-04-06T02:22:39.420421</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.643775</t>
+          <t>2025-04-06T02:22:39.420421</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.643775</t>
+          <t>2025-04-06T02:22:39.420421</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.643775</t>
+          <t>2025-04-06T02:22:39.420421</t>
         </is>
       </c>
       <c r="O29" t="n">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.643775</t>
+          <t>2025-04-06T02:22:39.420421</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.643775</t>
+          <t>2025-04-06T02:22:39.420421</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Caribbean</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.643775</t>
+          <t>2025-04-06T02:22:39.436040</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.659408</t>
+          <t>2025-04-06T02:22:39.436040</t>
         </is>
       </c>
       <c r="O33" t="n">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.659408</t>
+          <t>2025-04-06T02:22:39.436040</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.659408</t>
+          <t>2025-04-06T02:22:39.436040</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.659408</t>
+          <t>2025-04-06T02:22:39.436040</t>
         </is>
       </c>
       <c r="O36" t="n">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.659408</t>
+          <t>2025-04-06T02:22:39.436040</t>
         </is>
       </c>
       <c r="O37" t="n">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.659408</t>
+          <t>2025-04-06T02:22:39.436040</t>
         </is>
       </c>
       <c r="O38" t="n">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.675026</t>
+          <t>2025-04-06T02:22:39.436040</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.675026</t>
+          <t>2025-04-06T02:22:39.451668</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.675026</t>
+          <t>2025-04-06T02:22:39.451668</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.675026</t>
+          <t>2025-04-06T02:22:39.451668</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.690652</t>
+          <t>2025-04-06T02:22:39.451668</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.690652</t>
+          <t>2025-04-06T02:22:39.451668</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.690652</t>
+          <t>2025-04-06T02:22:39.451668</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.690652</t>
+          <t>2025-04-06T02:22:39.451668</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.706279</t>
+          <t>2025-04-06T02:22:39.467292</t>
         </is>
       </c>
       <c r="O47" t="n">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.706279</t>
+          <t>2025-04-06T02:22:39.467292</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.706279</t>
+          <t>2025-04-06T02:22:39.467292</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.706279</t>
+          <t>2025-04-06T02:22:39.467292</t>
         </is>
       </c>
       <c r="O50" t="n">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Northern Europe</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.721905</t>
+          <t>2025-04-06T02:22:39.467292</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.721905</t>
+          <t>2025-04-06T02:22:39.467292</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -5066,7 +5066,7 @@
         <v>2072</v>
       </c>
       <c r="H53" t="n">
-        <v>133.505341239138</v>
+        <v>135</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -5095,11 +5095,11 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.721905</t>
+          <t>2025-04-06T02:22:39.467292</t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>15.51997830774862</v>
+        <v>15.34814814814815</v>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.721905</t>
+          <t>2025-04-06T02:22:39.467292</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.721905</t>
+          <t>2025-04-06T02:22:39.482923</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.721905</t>
+          <t>2025-04-06T02:22:39.482923</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.737527</t>
+          <t>2025-04-06T02:22:39.482923</t>
         </is>
       </c>
       <c r="O57" t="n">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.737527</t>
+          <t>2025-04-06T02:22:39.482923</t>
         </is>
       </c>
       <c r="O58" t="n">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.737527</t>
+          <t>2025-04-06T02:22:39.482923</t>
         </is>
       </c>
       <c r="O59" t="n">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.737527</t>
+          <t>2025-04-06T02:22:39.482923</t>
         </is>
       </c>
       <c r="O60" t="n">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.753151</t>
+          <t>2025-04-06T02:22:39.482923</t>
         </is>
       </c>
       <c r="O61" t="n">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.753151</t>
+          <t>2025-04-06T02:22:39.482923</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.753151</t>
+          <t>2025-04-06T02:22:39.498560</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.753151</t>
+          <t>2025-04-06T02:22:39.498560</t>
         </is>
       </c>
       <c r="O64" t="n">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.753151</t>
+          <t>2025-04-06T02:22:39.498560</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.753151</t>
+          <t>2025-04-06T02:22:39.498560</t>
         </is>
       </c>
       <c r="O66" t="n">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.768779</t>
+          <t>2025-04-06T02:22:39.498560</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.768779</t>
+          <t>2025-04-06T02:22:39.498560</t>
         </is>
       </c>
       <c r="O68" t="n">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Amsterdam"]</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.768779</t>
+          <t>2025-04-06T02:22:39.498560</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.768779</t>
+          <t>2025-04-06T02:22:39.514171</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.784402</t>
+          <t>2025-04-06T02:22:39.514171</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.784402</t>
+          <t>2025-04-06T02:22:39.514171</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.784402</t>
+          <t>2025-04-06T02:22:39.514171</t>
         </is>
       </c>
       <c r="O73" t="n">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.784402</t>
+          <t>2025-04-06T02:22:39.514171</t>
         </is>
       </c>
       <c r="O74" t="n">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.784402</t>
+          <t>2025-04-06T02:22:39.514171</t>
         </is>
       </c>
       <c r="O75" t="n">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.800026</t>
+          <t>2025-04-06T02:22:39.514171</t>
         </is>
       </c>
       <c r="O76" t="n">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.800026</t>
+          <t>2025-04-06T02:22:39.529802</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.800026</t>
+          <t>2025-04-06T02:22:39.529802</t>
         </is>
       </c>
       <c r="O78" t="n">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.800026</t>
+          <t>2025-04-06T02:22:39.529802</t>
         </is>
       </c>
       <c r="O79" t="n">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.815654</t>
+          <t>2025-04-06T02:22:39.529802</t>
         </is>
       </c>
       <c r="O80" t="n">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>["Mamoudzou"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7555,7 +7555,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.815654</t>
+          <t>2025-04-06T02:22:39.540435</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.815654</t>
+          <t>2025-04-06T02:22:39.540962</t>
         </is>
       </c>
       <c r="O82" t="n">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.815654</t>
+          <t>2025-04-06T02:22:39.540962</t>
         </is>
       </c>
       <c r="O83" t="n">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.815654</t>
+          <t>2025-04-06T02:22:39.545485</t>
         </is>
       </c>
       <c r="O84" t="n">
@@ -7907,7 +7907,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.831294</t>
+          <t>2025-04-06T02:22:39.545485</t>
         </is>
       </c>
       <c r="O85" t="n">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.831294</t>
+          <t>2025-04-06T02:22:39.545485</t>
         </is>
       </c>
       <c r="O86" t="n">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.831294</t>
+          <t>2025-04-06T02:22:39.545485</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -8171,7 +8171,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.831294</t>
+          <t>2025-04-06T02:22:39.545485</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.846901</t>
+          <t>2025-04-06T02:22:39.545485</t>
         </is>
       </c>
       <c r="O89" t="n">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Mbabane"]</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.846901</t>
+          <t>2025-04-06T02:22:39.545485</t>
         </is>
       </c>
       <c r="O90" t="n">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.846901</t>
+          <t>2025-04-06T02:22:39.545485</t>
         </is>
       </c>
       <c r="O91" t="n">
@@ -8491,7 +8491,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6486201</v>
+        <v>6487125</v>
       </c>
       <c r="H92" t="n">
         <v>21041</v>
@@ -8523,11 +8523,11 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.846901</t>
+          <t>2025-04-06T02:22:39.561150</t>
         </is>
       </c>
       <c r="O92" t="n">
-        <v>308.2648638372701</v>
+        <v>308.3087780999002</v>
       </c>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="U92" t="n">
-        <v>0.1541734522257328</v>
+        <v>0.1541514923791356</v>
       </c>
       <c r="V92" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.846901</t>
+          <t>2025-04-06T02:22:39.561150</t>
         </is>
       </c>
       <c r="O93" t="n">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.862524</t>
+          <t>2025-04-06T02:22:39.561150</t>
         </is>
       </c>
       <c r="O94" t="n">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.862524</t>
+          <t>2025-04-06T02:22:39.561150</t>
         </is>
       </c>
       <c r="O95" t="n">
@@ -8875,7 +8875,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.862524</t>
+          <t>2025-04-06T02:22:39.561150</t>
         </is>
       </c>
       <c r="O96" t="n">
@@ -8963,7 +8963,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.862524</t>
+          <t>2025-04-06T02:22:39.561150</t>
         </is>
       </c>
       <c r="O97" t="n">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.862524</t>
+          <t>2025-04-06T02:22:39.576773</t>
         </is>
       </c>
       <c r="O98" t="n">
@@ -9139,7 +9139,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.862524</t>
+          <t>2025-04-06T02:22:39.576773</t>
         </is>
       </c>
       <c r="O99" t="n">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.878156</t>
+          <t>2025-04-06T02:22:39.576773</t>
         </is>
       </c>
       <c r="O100" t="n">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.878156</t>
+          <t>2025-04-06T02:22:39.576773</t>
         </is>
       </c>
       <c r="O101" t="n">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.878156</t>
+          <t>2025-04-06T02:22:39.576773</t>
         </is>
       </c>
       <c r="O102" t="n">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.878156</t>
+          <t>2025-04-06T02:22:39.576773</t>
         </is>
       </c>
       <c r="O103" t="n">
@@ -9579,7 +9579,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.878156</t>
+          <t>2025-04-06T02:22:39.576773</t>
         </is>
       </c>
       <c r="O104" t="n">
@@ -9667,7 +9667,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.893791</t>
+          <t>2025-04-06T02:22:39.576773</t>
         </is>
       </c>
       <c r="O105" t="n">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.893791</t>
+          <t>2025-04-06T02:22:39.592392</t>
         </is>
       </c>
       <c r="O106" t="n">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.893791</t>
+          <t>2025-04-06T02:22:39.592392</t>
         </is>
       </c>
       <c r="O107" t="n">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.893791</t>
+          <t>2025-04-06T02:22:39.592392</t>
         </is>
       </c>
       <c r="O108" t="n">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.893791</t>
+          <t>2025-04-06T02:22:39.592392</t>
         </is>
       </c>
       <c r="O109" t="n">
@@ -10071,7 +10071,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10107,7 +10107,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.909401</t>
+          <t>2025-04-06T02:22:39.592392</t>
         </is>
       </c>
       <c r="O110" t="n">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.909401</t>
+          <t>2025-04-06T02:22:39.592392</t>
         </is>
       </c>
       <c r="O111" t="n">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.909401</t>
+          <t>2025-04-06T02:22:39.592392</t>
         </is>
       </c>
       <c r="O112" t="n">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.909401</t>
+          <t>2025-04-06T02:22:39.592392</t>
         </is>
       </c>
       <c r="O113" t="n">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.909401</t>
+          <t>2025-04-06T02:22:39.608024</t>
         </is>
       </c>
       <c r="O114" t="n">
@@ -10527,7 +10527,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>["Madrid"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10547,7 +10547,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.925130</t>
+          <t>2025-04-06T02:22:39.608024</t>
         </is>
       </c>
       <c r="O115" t="n">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.925130</t>
+          <t>2025-04-06T02:22:39.608024</t>
         </is>
       </c>
       <c r="O116" t="n">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.925130</t>
+          <t>2025-04-06T02:22:39.608024</t>
         </is>
       </c>
       <c r="O117" t="n">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.925130</t>
+          <t>2025-04-06T02:22:39.608024</t>
         </is>
       </c>
       <c r="O118" t="n">
@@ -10899,7 +10899,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.925130</t>
+          <t>2025-04-06T02:22:39.608024</t>
         </is>
       </c>
       <c r="O119" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.925130</t>
+          <t>2025-04-06T02:22:39.608024</t>
         </is>
       </c>
       <c r="O120" t="n">
@@ -11075,7 +11075,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.940656</t>
+          <t>2025-04-06T02:22:39.608024</t>
         </is>
       </c>
       <c r="O121" t="n">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.940656</t>
+          <t>2025-04-06T02:22:39.623644</t>
         </is>
       </c>
       <c r="O122" t="n">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.940656</t>
+          <t>2025-04-06T02:22:39.623644</t>
         </is>
       </c>
       <c r="O123" t="n">
@@ -11307,7 +11307,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>367830</v>
+        <v>366425</v>
       </c>
       <c r="H124" t="n">
         <v>103000</v>
@@ -11339,11 +11339,11 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.940656</t>
+          <t>2025-04-06T02:22:39.623644</t>
         </is>
       </c>
       <c r="O124" t="n">
-        <v>3.571165048543689</v>
+        <v>3.55752427184466</v>
       </c>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
@@ -11357,7 +11357,7 @@
         </is>
       </c>
       <c r="U124" t="n">
-        <v>2.718647201152706</v>
+        <v>2.729071433444771</v>
       </c>
       <c r="V124" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.940656</t>
+          <t>2025-04-06T02:22:39.623644</t>
         </is>
       </c>
       <c r="O125" t="n">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.956275</t>
+          <t>2025-04-06T02:22:39.623644</t>
         </is>
       </c>
       <c r="O126" t="n">
@@ -11603,7 +11603,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.956275</t>
+          <t>2025-04-06T02:22:39.623644</t>
         </is>
       </c>
       <c r="O127" t="n">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.956275</t>
+          <t>2025-04-06T02:22:39.623644</t>
         </is>
       </c>
       <c r="O128" t="n">
@@ -11779,7 +11779,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.956275</t>
+          <t>2025-04-06T02:22:39.623644</t>
         </is>
       </c>
       <c r="O129" t="n">
@@ -11867,7 +11867,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.956275</t>
+          <t>2025-04-06T02:22:39.639276</t>
         </is>
       </c>
       <c r="O130" t="n">
@@ -11955,7 +11955,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.971904</t>
+          <t>2025-04-06T02:22:39.639276</t>
         </is>
       </c>
       <c r="O131" t="n">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.971904</t>
+          <t>2025-04-06T02:22:39.639276</t>
         </is>
       </c>
       <c r="O132" t="n">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.971904</t>
+          <t>2025-04-06T02:22:39.639276</t>
         </is>
       </c>
       <c r="O133" t="n">
@@ -12219,7 +12219,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.971904</t>
+          <t>2025-04-06T02:22:39.639276</t>
         </is>
       </c>
       <c r="O134" t="n">
@@ -12307,7 +12307,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.971904</t>
+          <t>2025-04-06T02:22:39.639276</t>
         </is>
       </c>
       <c r="O135" t="n">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.987533</t>
+          <t>2025-04-06T02:22:39.639276</t>
         </is>
       </c>
       <c r="O136" t="n">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.987533</t>
+          <t>2025-04-06T02:22:39.654892</t>
         </is>
       </c>
       <c r="O137" t="n">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.987533</t>
+          <t>2025-04-06T02:22:39.654892</t>
         </is>
       </c>
       <c r="O138" t="n">
@@ -12659,7 +12659,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.987533</t>
+          <t>2025-04-06T02:22:39.654892</t>
         </is>
       </c>
       <c r="O139" t="n">
@@ -12747,7 +12747,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:40.987533</t>
+          <t>2025-04-06T02:22:39.654892</t>
         </is>
       </c>
       <c r="O140" t="n">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.003152</t>
+          <t>2025-04-06T02:22:39.654892</t>
         </is>
       </c>
       <c r="O141" t="n">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.003152</t>
+          <t>2025-04-06T02:22:39.654892</t>
         </is>
       </c>
       <c r="O142" t="n">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.003152</t>
+          <t>2025-04-06T02:22:39.654892</t>
         </is>
       </c>
       <c r="O143" t="n">
@@ -13099,7 +13099,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.003152</t>
+          <t>2025-04-06T02:22:39.654892</t>
         </is>
       </c>
       <c r="O144" t="n">
@@ -13187,7 +13187,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.003152</t>
+          <t>2025-04-06T02:22:39.670518</t>
         </is>
       </c>
       <c r="O145" t="n">
@@ -13275,7 +13275,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.018777</t>
+          <t>2025-04-06T02:22:39.670518</t>
         </is>
       </c>
       <c r="O146" t="n">
@@ -13363,7 +13363,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.018777</t>
+          <t>2025-04-06T02:22:39.670518</t>
         </is>
       </c>
       <c r="O147" t="n">
@@ -13422,7 +13422,7 @@
         <v>26545864</v>
       </c>
       <c r="H148" t="n">
-        <v>475442</v>
+        <v>484234.1940988947</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -13451,11 +13451,11 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.018777</t>
+          <t>2025-04-06T02:22:39.670518</t>
         </is>
       </c>
       <c r="O148" t="n">
-        <v>55.83407439813899</v>
+        <v>54.82030043210571</v>
       </c>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
@@ -13539,7 +13539,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.018777</t>
+          <t>2025-04-06T02:22:39.670518</t>
         </is>
       </c>
       <c r="O149" t="n">
@@ -13627,7 +13627,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.018777</t>
+          <t>2025-04-06T02:22:39.670518</t>
         </is>
       </c>
       <c r="O150" t="n">
@@ -13683,7 +13683,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>586634</v>
+        <v>582362</v>
       </c>
       <c r="H151" t="n">
         <v>163820</v>
@@ -13715,11 +13715,11 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.018777</t>
+          <t>2025-04-06T02:22:39.670518</t>
         </is>
       </c>
       <c r="O151" t="n">
-        <v>3.580966914906605</v>
+        <v>3.55488951287999</v>
       </c>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
@@ -13733,7 +13733,7 @@
         </is>
       </c>
       <c r="U151" t="n">
-        <v>1.704640372020715</v>
+        <v>1.717145006027179</v>
       </c>
       <c r="V151" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.034406</t>
+          <t>2025-04-06T02:22:39.686150</t>
         </is>
       </c>
       <c r="O152" t="n">
@@ -13891,7 +13891,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.034406</t>
+          <t>2025-04-06T02:22:39.686150</t>
         </is>
       </c>
       <c r="O153" t="n">
@@ -13979,7 +13979,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.034406</t>
+          <t>2025-04-06T02:22:39.686150</t>
         </is>
       </c>
       <c r="O154" t="n">
@@ -14067,7 +14067,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.034406</t>
+          <t>2025-04-06T02:22:39.686150</t>
         </is>
       </c>
       <c r="O155" t="n">
@@ -14155,7 +14155,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.050036</t>
+          <t>2025-04-06T02:22:39.686150</t>
         </is>
       </c>
       <c r="O156" t="n">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.050036</t>
+          <t>2025-04-06T02:22:39.686150</t>
         </is>
       </c>
       <c r="O157" t="n">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.050036</t>
+          <t>2025-04-06T02:22:39.686150</t>
         </is>
       </c>
       <c r="O158" t="n">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.050036</t>
+          <t>2025-04-06T02:22:39.701770</t>
         </is>
       </c>
       <c r="O159" t="n">
@@ -14507,7 +14507,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.050036</t>
+          <t>2025-04-06T02:22:39.701770</t>
         </is>
       </c>
       <c r="O160" t="n">
@@ -14595,7 +14595,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.050036</t>
+          <t>2025-04-06T02:22:39.701770</t>
         </is>
       </c>
       <c r="O161" t="n">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.065652</t>
+          <t>2025-04-06T02:22:39.701770</t>
         </is>
       </c>
       <c r="O162" t="n">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.065652</t>
+          <t>2025-04-06T02:22:39.701770</t>
         </is>
       </c>
       <c r="O163" t="n">
@@ -14859,7 +14859,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.065652</t>
+          <t>2025-04-06T02:22:39.701770</t>
         </is>
       </c>
       <c r="O164" t="n">
@@ -14947,7 +14947,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.065652</t>
+          <t>2025-04-06T02:22:39.701770</t>
         </is>
       </c>
       <c r="O165" t="n">
@@ -15035,7 +15035,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.065652</t>
+          <t>2025-04-06T02:22:39.701770</t>
         </is>
       </c>
       <c r="O166" t="n">
@@ -15123,7 +15123,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.082017</t>
+          <t>2025-04-06T02:22:39.717393</t>
         </is>
       </c>
       <c r="O167" t="n">
@@ -15211,7 +15211,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.082017</t>
+          <t>2025-04-06T02:22:39.717393</t>
         </is>
       </c>
       <c r="O168" t="n">
@@ -15270,7 +15270,7 @@
         <v>97338583</v>
       </c>
       <c r="H169" t="n">
-        <v>323639.1380288619</v>
+        <v>331212</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -15299,11 +15299,11 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.082017</t>
+          <t>2025-04-06T02:22:39.717393</t>
         </is>
       </c>
       <c r="O169" t="n">
-        <v>300.7627062438889</v>
+        <v>293.8860397570136</v>
       </c>
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
@@ -15387,7 +15387,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.082017</t>
+          <t>2025-04-06T02:22:39.717393</t>
         </is>
       </c>
       <c r="O170" t="n">
@@ -15475,7 +15475,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.082017</t>
+          <t>2025-04-06T02:22:39.717393</t>
         </is>
       </c>
       <c r="O171" t="n">
@@ -15563,7 +15563,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.097711</t>
+          <t>2025-04-06T02:22:39.717393</t>
         </is>
       </c>
       <c r="O172" t="n">
@@ -15651,7 +15651,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.097711</t>
+          <t>2025-04-06T02:22:39.717393</t>
         </is>
       </c>
       <c r="O173" t="n">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.097711</t>
+          <t>2025-04-06T02:22:39.717393</t>
         </is>
       </c>
       <c r="O174" t="n">
@@ -15839,7 +15839,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.097711</t>
+          <t>2025-04-06T02:22:39.733025</t>
         </is>
       </c>
       <c r="O175" t="n">
@@ -15927,7 +15927,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.113383</t>
+          <t>2025-04-06T02:22:39.733025</t>
         </is>
       </c>
       <c r="O176" t="n">
@@ -16015,7 +16015,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.113383</t>
+          <t>2025-04-06T02:22:39.733025</t>
         </is>
       </c>
       <c r="O177" t="n">
@@ -16103,7 +16103,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.113383</t>
+          <t>2025-04-06T02:22:39.733025</t>
         </is>
       </c>
       <c r="O178" t="n">
@@ -16191,7 +16191,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.113383</t>
+          <t>2025-04-06T02:22:39.733025</t>
         </is>
       </c>
       <c r="O179" t="n">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.113383</t>
+          <t>2025-04-06T02:22:39.733025</t>
         </is>
       </c>
       <c r="O180" t="n">
@@ -16367,7 +16367,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.113383</t>
+          <t>2025-04-06T02:22:39.733025</t>
         </is>
       </c>
       <c r="O181" t="n">
@@ -16419,7 +16419,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Northern Europe</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G182" t="n">
@@ -16455,7 +16455,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.129537</t>
+          <t>2025-04-06T02:22:39.748643</t>
         </is>
       </c>
       <c r="O182" t="n">
@@ -16543,7 +16543,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.129537</t>
+          <t>2025-04-06T02:22:39.748643</t>
         </is>
       </c>
       <c r="O183" t="n">
@@ -16631,7 +16631,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.129537</t>
+          <t>2025-04-06T02:22:39.748643</t>
         </is>
       </c>
       <c r="O184" t="n">
@@ -16719,7 +16719,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.129537</t>
+          <t>2025-04-06T02:22:39.748643</t>
         </is>
       </c>
       <c r="O185" t="n">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.129537</t>
+          <t>2025-04-06T02:22:39.748643</t>
         </is>
       </c>
       <c r="O186" t="n">
@@ -16895,7 +16895,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.129537</t>
+          <t>2025-04-06T02:22:39.748643</t>
         </is>
       </c>
       <c r="O187" t="n">
@@ -16983,7 +16983,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.145228</t>
+          <t>2025-04-06T02:22:39.748643</t>
         </is>
       </c>
       <c r="O188" t="n">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.145228</t>
+          <t>2025-04-06T02:22:39.748643</t>
         </is>
       </c>
       <c r="O189" t="n">
@@ -17159,7 +17159,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.145228</t>
+          <t>2025-04-06T02:22:39.764267</t>
         </is>
       </c>
       <c r="O190" t="n">
@@ -17247,7 +17247,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.145228</t>
+          <t>2025-04-06T02:22:39.764267</t>
         </is>
       </c>
       <c r="O191" t="n">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.145228</t>
+          <t>2025-04-06T02:22:39.764267</t>
         </is>
       </c>
       <c r="O192" t="n">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.161285</t>
+          <t>2025-04-06T02:22:39.764267</t>
         </is>
       </c>
       <c r="O193" t="n">
@@ -17511,7 +17511,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.161285</t>
+          <t>2025-04-06T02:22:39.764267</t>
         </is>
       </c>
       <c r="O194" t="n">
@@ -17599,7 +17599,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.161285</t>
+          <t>2025-04-06T02:22:39.764267</t>
         </is>
       </c>
       <c r="O195" t="n">
@@ -17658,7 +17658,7 @@
         <v>2617820</v>
       </c>
       <c r="H196" t="n">
-        <v>33846</v>
+        <v>33124.97145506841</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
@@ -17687,11 +17687,11 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.161285</t>
+          <t>2025-04-06T02:22:39.764267</t>
         </is>
       </c>
       <c r="O196" t="n">
-        <v>77.3450333865154</v>
+        <v>79.0285964034982</v>
       </c>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="inlineStr"/>
@@ -17775,7 +17775,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.161285</t>
+          <t>2025-04-06T02:22:39.764267</t>
         </is>
       </c>
       <c r="O197" t="n">
@@ -17863,7 +17863,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.161285</t>
+          <t>2025-04-06T02:22:39.779893</t>
         </is>
       </c>
       <c r="O198" t="n">
@@ -17951,7 +17951,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.176965</t>
+          <t>2025-04-06T02:22:39.779893</t>
         </is>
       </c>
       <c r="O199" t="n">
@@ -18039,7 +18039,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.176965</t>
+          <t>2025-04-06T02:22:39.779893</t>
         </is>
       </c>
       <c r="O200" t="n">
@@ -18127,7 +18127,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.176965</t>
+          <t>2025-04-06T02:22:39.779893</t>
         </is>
       </c>
       <c r="O201" t="n">
@@ -18215,7 +18215,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.176965</t>
+          <t>2025-04-06T02:22:39.779893</t>
         </is>
       </c>
       <c r="O202" t="n">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.176965</t>
+          <t>2025-04-06T02:22:39.779893</t>
         </is>
       </c>
       <c r="O203" t="n">
@@ -18391,7 +18391,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.192582</t>
+          <t>2025-04-06T02:22:39.779893</t>
         </is>
       </c>
       <c r="O204" t="n">
@@ -18479,7 +18479,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.192582</t>
+          <t>2025-04-06T02:22:39.795526</t>
         </is>
       </c>
       <c r="O205" t="n">
@@ -18567,7 +18567,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.192582</t>
+          <t>2025-04-06T02:22:39.795526</t>
         </is>
       </c>
       <c r="O206" t="n">
@@ -18655,7 +18655,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.192582</t>
+          <t>2025-04-06T02:22:39.795526</t>
         </is>
       </c>
       <c r="O207" t="n">
@@ -18743,7 +18743,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.192582</t>
+          <t>2025-04-06T02:22:39.795526</t>
         </is>
       </c>
       <c r="O208" t="n">
@@ -18831,7 +18831,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.208207</t>
+          <t>2025-04-06T02:22:39.795526</t>
         </is>
       </c>
       <c r="O209" t="n">
@@ -18919,7 +18919,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.208207</t>
+          <t>2025-04-06T02:22:39.795526</t>
         </is>
       </c>
       <c r="O210" t="n">
@@ -19007,7 +19007,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.208207</t>
+          <t>2025-04-06T02:22:39.795526</t>
         </is>
       </c>
       <c r="O211" t="n">
@@ -19095,7 +19095,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.208207</t>
+          <t>2025-04-06T02:22:39.811143</t>
         </is>
       </c>
       <c r="O212" t="n">
@@ -19183,7 +19183,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.208207</t>
+          <t>2025-04-06T02:22:39.812172</t>
         </is>
       </c>
       <c r="O213" t="n">
@@ -19271,7 +19271,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.208207</t>
+          <t>2025-04-06T02:22:39.812172</t>
         </is>
       </c>
       <c r="O214" t="n">
@@ -19359,7 +19359,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.223832</t>
+          <t>2025-04-06T02:22:39.812172</t>
         </is>
       </c>
       <c r="O215" t="n">
@@ -19447,7 +19447,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.223832</t>
+          <t>2025-04-06T02:22:39.812172</t>
         </is>
       </c>
       <c r="O216" t="n">
@@ -19535,7 +19535,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.223832</t>
+          <t>2025-04-06T02:22:39.812172</t>
         </is>
       </c>
       <c r="O217" t="n">
@@ -19623,7 +19623,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.223832</t>
+          <t>2025-04-06T02:22:39.812172</t>
         </is>
       </c>
       <c r="O218" t="n">
@@ -19711,7 +19711,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.223832</t>
+          <t>2025-04-06T02:22:39.812172</t>
         </is>
       </c>
       <c r="O219" t="n">
@@ -19799,7 +19799,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.223832</t>
+          <t>2025-04-06T02:22:39.812172</t>
         </is>
       </c>
       <c r="O220" t="n">
@@ -19887,7 +19887,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.239460</t>
+          <t>2025-04-06T02:22:39.827849</t>
         </is>
       </c>
       <c r="O221" t="n">
@@ -19975,7 +19975,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.239460</t>
+          <t>2025-04-06T02:22:39.827849</t>
         </is>
       </c>
       <c r="O222" t="n">
@@ -20063,7 +20063,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.239460</t>
+          <t>2025-04-06T02:22:39.827849</t>
         </is>
       </c>
       <c r="O223" t="n">
@@ -20151,7 +20151,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.239460</t>
+          <t>2025-04-06T02:22:39.827849</t>
         </is>
       </c>
       <c r="O224" t="n">
@@ -20239,7 +20239,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.239460</t>
+          <t>2025-04-06T02:22:39.827849</t>
         </is>
       </c>
       <c r="O225" t="n">
@@ -20327,7 +20327,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.255082</t>
+          <t>2025-04-06T02:22:39.827849</t>
         </is>
       </c>
       <c r="O226" t="n">
@@ -20415,7 +20415,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.255082</t>
+          <t>2025-04-06T02:22:39.827849</t>
         </is>
       </c>
       <c r="O227" t="n">
@@ -20503,7 +20503,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.255082</t>
+          <t>2025-04-06T02:22:39.827849</t>
         </is>
       </c>
       <c r="O228" t="n">
@@ -20591,7 +20591,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.255082</t>
+          <t>2025-04-06T02:22:39.843478</t>
         </is>
       </c>
       <c r="O229" t="n">
@@ -20679,7 +20679,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.270706</t>
+          <t>2025-04-06T02:22:39.843478</t>
         </is>
       </c>
       <c r="O230" t="n">
@@ -20767,7 +20767,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.270706</t>
+          <t>2025-04-06T02:22:39.843478</t>
         </is>
       </c>
       <c r="O231" t="n">
@@ -20855,7 +20855,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.270706</t>
+          <t>2025-04-06T02:22:39.843478</t>
         </is>
       </c>
       <c r="O232" t="n">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.270706</t>
+          <t>2025-04-06T02:22:39.843478</t>
         </is>
       </c>
       <c r="O233" t="n">
@@ -21031,7 +21031,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.270706</t>
+          <t>2025-04-06T02:22:39.843478</t>
         </is>
       </c>
       <c r="O234" t="n">
@@ -21119,7 +21119,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.270706</t>
+          <t>2025-04-06T02:22:39.843478</t>
         </is>
       </c>
       <c r="O235" t="n">
@@ -21207,7 +21207,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.286332</t>
+          <t>2025-04-06T02:22:39.859097</t>
         </is>
       </c>
       <c r="O236" t="n">
@@ -21295,7 +21295,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.286332</t>
+          <t>2025-04-06T02:22:39.859097</t>
         </is>
       </c>
       <c r="O237" t="n">
@@ -21383,7 +21383,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.286332</t>
+          <t>2025-04-06T02:22:39.859097</t>
         </is>
       </c>
       <c r="O238" t="n">
@@ -21471,7 +21471,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.286332</t>
+          <t>2025-04-06T02:22:39.859097</t>
         </is>
       </c>
       <c r="O239" t="n">
@@ -21559,7 +21559,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.286332</t>
+          <t>2025-04-06T02:22:39.859097</t>
         </is>
       </c>
       <c r="O240" t="n">
@@ -21647,7 +21647,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.301959</t>
+          <t>2025-04-06T02:22:39.859097</t>
         </is>
       </c>
       <c r="O241" t="n">
@@ -21735,7 +21735,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.301959</t>
+          <t>2025-04-06T02:22:39.859097</t>
         </is>
       </c>
       <c r="O242" t="n">
@@ -21823,7 +21823,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.301959</t>
+          <t>2025-04-06T02:22:39.859097</t>
         </is>
       </c>
       <c r="O243" t="n">
@@ -21911,7 +21911,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.301959</t>
+          <t>2025-04-06T02:22:39.874722</t>
         </is>
       </c>
       <c r="O244" t="n">
@@ -21999,7 +21999,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.301959</t>
+          <t>2025-04-06T02:22:39.874722</t>
         </is>
       </c>
       <c r="O245" t="n">
@@ -22087,7 +22087,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.317583</t>
+          <t>2025-04-06T02:22:39.874722</t>
         </is>
       </c>
       <c r="O246" t="n">
@@ -22175,7 +22175,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.317583</t>
+          <t>2025-04-06T02:22:39.874722</t>
         </is>
       </c>
       <c r="O247" t="n">
@@ -22263,7 +22263,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.317583</t>
+          <t>2025-04-06T02:22:39.874722</t>
         </is>
       </c>
       <c r="O248" t="n">
@@ -22351,7 +22351,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.317583</t>
+          <t>2025-04-06T02:22:39.874722</t>
         </is>
       </c>
       <c r="O249" t="n">
@@ -22439,7 +22439,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.317583</t>
+          <t>2025-04-06T02:22:39.874722</t>
         </is>
       </c>
       <c r="O250" t="n">
@@ -22527,7 +22527,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-04-06T02:01:41.317583</t>
+          <t>2025-04-06T02:22:39.874722</t>
         </is>
       </c>
       <c r="O251" t="n">

--- a/src/static/xlsx/enriched_data.xlsx
+++ b/src/static/xlsx/enriched_data.xlsx
@@ -607,7 +607,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.357084</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.357084</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.357084</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.357084</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -959,7 +959,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.357084</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.372697</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.372697</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.372697</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.372697</t>
+          <t>2025-04-06T02:26:52.600089</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.372697</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.372697</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.372697</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.389119</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.389119</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.389119</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.389119</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.389119</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.389119</t>
+          <t>2025-04-06T02:26:52.615722</t>
         </is>
       </c>
       <c r="O19" t="n">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.389119</t>
+          <t>2025-04-06T02:26:52.631329</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.389119</t>
+          <t>2025-04-06T02:26:52.631329</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.404795</t>
+          <t>2025-04-06T02:26:52.631329</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.404795</t>
+          <t>2025-04-06T02:26:52.631329</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.404795</t>
+          <t>2025-04-06T02:26:52.631329</t>
         </is>
       </c>
       <c r="O24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.420421</t>
+          <t>2025-04-06T02:26:52.631329</t>
         </is>
       </c>
       <c r="O25" t="n">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.420421</t>
+          <t>2025-04-06T02:26:52.631329</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.420421</t>
+          <t>2025-04-06T02:26:52.631329</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.420421</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O28" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.420421</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O29" t="n">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.420421</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O30" t="n">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.420421</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.436040</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.436040</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O33" t="n">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.436040</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.436040</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.436040</t>
+          <t>2025-04-06T02:26:52.647075</t>
         </is>
       </c>
       <c r="O36" t="n">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.436040</t>
+          <t>2025-04-06T02:26:52.662597</t>
         </is>
       </c>
       <c r="O37" t="n">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.436040</t>
+          <t>2025-04-06T02:26:52.662597</t>
         </is>
       </c>
       <c r="O38" t="n">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.436040</t>
+          <t>2025-04-06T02:26:52.662597</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.451668</t>
+          <t>2025-04-06T02:26:52.662597</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.451668</t>
+          <t>2025-04-06T02:26:52.678256</t>
         </is>
       </c>
       <c r="O41" t="n">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.451668</t>
+          <t>2025-04-06T02:26:52.678256</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.451668</t>
+          <t>2025-04-06T02:26:52.678256</t>
         </is>
       </c>
       <c r="O43" t="n">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.451668</t>
+          <t>2025-04-06T02:26:52.678256</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.451668</t>
+          <t>2025-04-06T02:26:52.678256</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.451668</t>
+          <t>2025-04-06T02:26:52.678256</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.467292</t>
+          <t>2025-04-06T02:26:52.678256</t>
         </is>
       </c>
       <c r="O47" t="n">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.467292</t>
+          <t>2025-04-06T02:26:52.678256</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.467292</t>
+          <t>2025-04-06T02:26:52.693878</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.467292</t>
+          <t>2025-04-06T02:26:52.693878</t>
         </is>
       </c>
       <c r="O50" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.467292</t>
+          <t>2025-04-06T02:26:52.693878</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.467292</t>
+          <t>2025-04-06T02:26:52.693878</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.467292</t>
+          <t>2025-04-06T02:26:52.693878</t>
         </is>
       </c>
       <c r="O53" t="n">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.467292</t>
+          <t>2025-04-06T02:26:52.693878</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.482923</t>
+          <t>2025-04-06T02:26:52.693878</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.482923</t>
+          <t>2025-04-06T02:26:52.693878</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.482923</t>
+          <t>2025-04-06T02:26:52.709502</t>
         </is>
       </c>
       <c r="O57" t="n">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.482923</t>
+          <t>2025-04-06T02:26:52.709502</t>
         </is>
       </c>
       <c r="O58" t="n">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.482923</t>
+          <t>2025-04-06T02:26:52.709502</t>
         </is>
       </c>
       <c r="O59" t="n">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.482923</t>
+          <t>2025-04-06T02:26:52.709502</t>
         </is>
       </c>
       <c r="O60" t="n">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.482923</t>
+          <t>2025-04-06T02:26:52.709502</t>
         </is>
       </c>
       <c r="O61" t="n">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.482923</t>
+          <t>2025-04-06T02:26:52.709502</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.498560</t>
+          <t>2025-04-06T02:26:52.709502</t>
         </is>
       </c>
       <c r="O63" t="n">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.498560</t>
+          <t>2025-04-06T02:26:52.709502</t>
         </is>
       </c>
       <c r="O64" t="n">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.498560</t>
+          <t>2025-04-06T02:26:52.725133</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.498560</t>
+          <t>2025-04-06T02:26:52.725133</t>
         </is>
       </c>
       <c r="O66" t="n">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.498560</t>
+          <t>2025-04-06T02:26:52.725133</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.498560</t>
+          <t>2025-04-06T02:26:52.725133</t>
         </is>
       </c>
       <c r="O68" t="n">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.498560</t>
+          <t>2025-04-06T02:26:52.725133</t>
         </is>
       </c>
       <c r="O69" t="n">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.514171</t>
+          <t>2025-04-06T02:26:52.725133</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.514171</t>
+          <t>2025-04-06T02:26:52.725133</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.514171</t>
+          <t>2025-04-06T02:26:52.725133</t>
         </is>
       </c>
       <c r="O72" t="n">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.514171</t>
+          <t>2025-04-06T02:26:52.740753</t>
         </is>
       </c>
       <c r="O73" t="n">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.514171</t>
+          <t>2025-04-06T02:26:52.741759</t>
         </is>
       </c>
       <c r="O74" t="n">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.514171</t>
+          <t>2025-04-06T02:26:52.741759</t>
         </is>
       </c>
       <c r="O75" t="n">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.514171</t>
+          <t>2025-04-06T02:26:52.741759</t>
         </is>
       </c>
       <c r="O76" t="n">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.529802</t>
+          <t>2025-04-06T02:26:52.741759</t>
         </is>
       </c>
       <c r="O77" t="n">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.529802</t>
+          <t>2025-04-06T02:26:52.741759</t>
         </is>
       </c>
       <c r="O78" t="n">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.529802</t>
+          <t>2025-04-06T02:26:52.741759</t>
         </is>
       </c>
       <c r="O79" t="n">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.529802</t>
+          <t>2025-04-06T02:26:52.741759</t>
         </is>
       </c>
       <c r="O80" t="n">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Mamoudzou"]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7555,7 +7555,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.540435</t>
+          <t>2025-04-06T02:26:52.741759</t>
         </is>
       </c>
       <c r="O81" t="n">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.540962</t>
+          <t>2025-04-06T02:26:52.757449</t>
         </is>
       </c>
       <c r="O82" t="n">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.540962</t>
+          <t>2025-04-06T02:26:52.757449</t>
         </is>
       </c>
       <c r="O83" t="n">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.545485</t>
+          <t>2025-04-06T02:26:52.757449</t>
         </is>
       </c>
       <c r="O84" t="n">
@@ -7907,7 +7907,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.545485</t>
+          <t>2025-04-06T02:26:52.757449</t>
         </is>
       </c>
       <c r="O85" t="n">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.545485</t>
+          <t>2025-04-06T02:26:52.757449</t>
         </is>
       </c>
       <c r="O86" t="n">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.545485</t>
+          <t>2025-04-06T02:26:52.757449</t>
         </is>
       </c>
       <c r="O87" t="n">
@@ -8171,7 +8171,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.545485</t>
+          <t>2025-04-06T02:26:52.757449</t>
         </is>
       </c>
       <c r="O88" t="n">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.545485</t>
+          <t>2025-04-06T02:26:52.757449</t>
         </is>
       </c>
       <c r="O89" t="n">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.545485</t>
+          <t>2025-04-06T02:26:52.773059</t>
         </is>
       </c>
       <c r="O90" t="n">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.545485</t>
+          <t>2025-04-06T02:26:52.773059</t>
         </is>
       </c>
       <c r="O91" t="n">
@@ -8491,7 +8491,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6487125</v>
+        <v>6486201</v>
       </c>
       <c r="H92" t="n">
         <v>21041</v>
@@ -8523,11 +8523,11 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.561150</t>
+          <t>2025-04-06T02:26:52.773059</t>
         </is>
       </c>
       <c r="O92" t="n">
-        <v>308.3087780999002</v>
+        <v>308.2648638372701</v>
       </c>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="U92" t="n">
-        <v>0.1541514923791356</v>
+        <v>0.1541734522257328</v>
       </c>
       <c r="V92" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.561150</t>
+          <t>2025-04-06T02:26:52.773059</t>
         </is>
       </c>
       <c r="O93" t="n">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.561150</t>
+          <t>2025-04-06T02:26:52.773059</t>
         </is>
       </c>
       <c r="O94" t="n">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.561150</t>
+          <t>2025-04-06T02:26:52.773059</t>
         </is>
       </c>
       <c r="O95" t="n">
@@ -8875,7 +8875,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.561150</t>
+          <t>2025-04-06T02:26:52.773059</t>
         </is>
       </c>
       <c r="O96" t="n">
@@ -8963,7 +8963,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.561150</t>
+          <t>2025-04-06T02:26:52.773059</t>
         </is>
       </c>
       <c r="O97" t="n">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.576773</t>
+          <t>2025-04-06T02:26:52.788681</t>
         </is>
       </c>
       <c r="O98" t="n">
@@ -9139,7 +9139,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.576773</t>
+          <t>2025-04-06T02:26:52.788681</t>
         </is>
       </c>
       <c r="O99" t="n">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.576773</t>
+          <t>2025-04-06T02:26:52.788681</t>
         </is>
       </c>
       <c r="O100" t="n">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.576773</t>
+          <t>2025-04-06T02:26:52.804383</t>
         </is>
       </c>
       <c r="O101" t="n">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.576773</t>
+          <t>2025-04-06T02:26:52.804383</t>
         </is>
       </c>
       <c r="O102" t="n">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.576773</t>
+          <t>2025-04-06T02:26:52.804383</t>
         </is>
       </c>
       <c r="O103" t="n">
@@ -9579,7 +9579,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.576773</t>
+          <t>2025-04-06T02:26:52.804383</t>
         </is>
       </c>
       <c r="O104" t="n">
@@ -9667,7 +9667,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.576773</t>
+          <t>2025-04-06T02:26:52.804383</t>
         </is>
       </c>
       <c r="O105" t="n">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.592392</t>
+          <t>2025-04-06T02:26:52.804383</t>
         </is>
       </c>
       <c r="O106" t="n">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.592392</t>
+          <t>2025-04-06T02:26:52.804383</t>
         </is>
       </c>
       <c r="O107" t="n">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.592392</t>
+          <t>2025-04-06T02:26:52.804383</t>
         </is>
       </c>
       <c r="O108" t="n">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.592392</t>
+          <t>2025-04-06T02:26:52.819935</t>
         </is>
       </c>
       <c r="O109" t="n">
@@ -10071,7 +10071,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10107,7 +10107,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.592392</t>
+          <t>2025-04-06T02:26:52.819935</t>
         </is>
       </c>
       <c r="O110" t="n">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.592392</t>
+          <t>2025-04-06T02:26:52.819935</t>
         </is>
       </c>
       <c r="O111" t="n">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.592392</t>
+          <t>2025-04-06T02:26:52.819935</t>
         </is>
       </c>
       <c r="O112" t="n">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.592392</t>
+          <t>2025-04-06T02:26:52.819935</t>
         </is>
       </c>
       <c r="O113" t="n">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.608024</t>
+          <t>2025-04-06T02:26:52.819935</t>
         </is>
       </c>
       <c r="O114" t="n">
@@ -10527,7 +10527,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>["Madrid"]</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10547,7 +10547,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.608024</t>
+          <t>2025-04-06T02:26:52.819935</t>
         </is>
       </c>
       <c r="O115" t="n">
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2100126</v>
+        <v>2099235</v>
       </c>
       <c r="H116" t="n">
         <v>20273</v>
@@ -10635,11 +10635,11 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.608024</t>
+          <t>2025-04-06T02:26:52.819935</t>
         </is>
       </c>
       <c r="O116" t="n">
-        <v>103.5922655749026</v>
+        <v>103.5483154935135</v>
       </c>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
@@ -10653,7 +10653,7 @@
         </is>
       </c>
       <c r="U116" t="n">
-        <v>0.4761619064760876</v>
+        <v>0.4763640087936796</v>
       </c>
       <c r="V116" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.608024</t>
+          <t>2025-04-06T02:26:52.835559</t>
         </is>
       </c>
       <c r="O117" t="n">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>["Saint-Pierre"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.608024</t>
+          <t>2025-04-06T02:26:52.835559</t>
         </is>
       </c>
       <c r="O118" t="n">
@@ -10899,7 +10899,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.608024</t>
+          <t>2025-04-06T02:26:52.835559</t>
         </is>
       </c>
       <c r="O119" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.608024</t>
+          <t>2025-04-06T02:26:52.835559</t>
         </is>
       </c>
       <c r="O120" t="n">
@@ -11075,7 +11075,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.608024</t>
+          <t>2025-04-06T02:26:52.835559</t>
         </is>
       </c>
       <c r="O121" t="n">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.623644</t>
+          <t>2025-04-06T02:26:52.835559</t>
         </is>
       </c>
       <c r="O122" t="n">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.623644</t>
+          <t>2025-04-06T02:26:52.835559</t>
         </is>
       </c>
       <c r="O123" t="n">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.623644</t>
+          <t>2025-04-06T02:26:52.835559</t>
         </is>
       </c>
       <c r="O124" t="n">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.623644</t>
+          <t>2025-04-06T02:26:52.851188</t>
         </is>
       </c>
       <c r="O125" t="n">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.623644</t>
+          <t>2025-04-06T02:26:52.851188</t>
         </is>
       </c>
       <c r="O126" t="n">
@@ -11603,7 +11603,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.623644</t>
+          <t>2025-04-06T02:26:52.851188</t>
         </is>
       </c>
       <c r="O127" t="n">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.623644</t>
+          <t>2025-04-06T02:26:52.851188</t>
         </is>
       </c>
       <c r="O128" t="n">
@@ -11779,7 +11779,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.623644</t>
+          <t>2025-04-06T02:26:52.851188</t>
         </is>
       </c>
       <c r="O129" t="n">
@@ -11867,7 +11867,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.639276</t>
+          <t>2025-04-06T02:26:52.851188</t>
         </is>
       </c>
       <c r="O130" t="n">
@@ -11955,7 +11955,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.639276</t>
+          <t>2025-04-06T02:26:52.851188</t>
         </is>
       </c>
       <c r="O131" t="n">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.639276</t>
+          <t>2025-04-06T02:26:52.851188</t>
         </is>
       </c>
       <c r="O132" t="n">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.639276</t>
+          <t>2025-04-06T02:26:52.866807</t>
         </is>
       </c>
       <c r="O133" t="n">
@@ -12219,7 +12219,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.639276</t>
+          <t>2025-04-06T02:26:52.866807</t>
         </is>
       </c>
       <c r="O134" t="n">
@@ -12307,7 +12307,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.639276</t>
+          <t>2025-04-06T02:26:52.866807</t>
         </is>
       </c>
       <c r="O135" t="n">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.639276</t>
+          <t>2025-04-06T02:26:52.866807</t>
         </is>
       </c>
       <c r="O136" t="n">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.654892</t>
+          <t>2025-04-06T02:26:52.866807</t>
         </is>
       </c>
       <c r="O137" t="n">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.654892</t>
+          <t>2025-04-06T02:26:52.866807</t>
         </is>
       </c>
       <c r="O138" t="n">
@@ -12659,7 +12659,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.654892</t>
+          <t>2025-04-06T02:26:52.866807</t>
         </is>
       </c>
       <c r="O139" t="n">
@@ -12747,7 +12747,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.654892</t>
+          <t>2025-04-06T02:26:52.866807</t>
         </is>
       </c>
       <c r="O140" t="n">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.654892</t>
+          <t>2025-04-06T02:26:52.882433</t>
         </is>
       </c>
       <c r="O141" t="n">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.654892</t>
+          <t>2025-04-06T02:26:52.882433</t>
         </is>
       </c>
       <c r="O142" t="n">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.654892</t>
+          <t>2025-04-06T02:26:52.882433</t>
         </is>
       </c>
       <c r="O143" t="n">
@@ -13099,7 +13099,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.654892</t>
+          <t>2025-04-06T02:26:52.882433</t>
         </is>
       </c>
       <c r="O144" t="n">
@@ -13187,7 +13187,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.670518</t>
+          <t>2025-04-06T02:26:52.882433</t>
         </is>
       </c>
       <c r="O145" t="n">
@@ -13275,7 +13275,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.670518</t>
+          <t>2025-04-06T02:26:52.882433</t>
         </is>
       </c>
       <c r="O146" t="n">
@@ -13363,7 +13363,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.670518</t>
+          <t>2025-04-06T02:26:52.882433</t>
         </is>
       </c>
       <c r="O147" t="n">
@@ -13422,7 +13422,7 @@
         <v>26545864</v>
       </c>
       <c r="H148" t="n">
-        <v>484234.1940988947</v>
+        <v>475442</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -13451,11 +13451,11 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.670518</t>
+          <t>2025-04-06T02:26:52.882433</t>
         </is>
       </c>
       <c r="O148" t="n">
-        <v>54.82030043210571</v>
+        <v>55.83407439813899</v>
       </c>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
@@ -13539,7 +13539,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.670518</t>
+          <t>2025-04-06T02:26:52.898065</t>
         </is>
       </c>
       <c r="O149" t="n">
@@ -13627,7 +13627,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.670518</t>
+          <t>2025-04-06T02:26:52.898065</t>
         </is>
       </c>
       <c r="O150" t="n">
@@ -13683,7 +13683,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>582362</v>
+        <v>586634</v>
       </c>
       <c r="H151" t="n">
         <v>163820</v>
@@ -13715,11 +13715,11 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.670518</t>
+          <t>2025-04-06T02:26:52.898065</t>
         </is>
       </c>
       <c r="O151" t="n">
-        <v>3.55488951287999</v>
+        <v>3.580966914906605</v>
       </c>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
@@ -13733,7 +13733,7 @@
         </is>
       </c>
       <c r="U151" t="n">
-        <v>1.717145006027179</v>
+        <v>1.704640372020715</v>
       </c>
       <c r="V151" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.686150</t>
+          <t>2025-04-06T02:26:52.898065</t>
         </is>
       </c>
       <c r="O152" t="n">
@@ -13891,7 +13891,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.686150</t>
+          <t>2025-04-06T02:26:52.898065</t>
         </is>
       </c>
       <c r="O153" t="n">
@@ -13979,7 +13979,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.686150</t>
+          <t>2025-04-06T02:26:52.898065</t>
         </is>
       </c>
       <c r="O154" t="n">
@@ -14067,7 +14067,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.686150</t>
+          <t>2025-04-06T02:26:52.913685</t>
         </is>
       </c>
       <c r="O155" t="n">
@@ -14155,7 +14155,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.686150</t>
+          <t>2025-04-06T02:26:52.913685</t>
         </is>
       </c>
       <c r="O156" t="n">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.686150</t>
+          <t>2025-04-06T02:26:52.913685</t>
         </is>
       </c>
       <c r="O157" t="n">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.686150</t>
+          <t>2025-04-06T02:26:52.913685</t>
         </is>
       </c>
       <c r="O158" t="n">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.701770</t>
+          <t>2025-04-06T02:26:52.913685</t>
         </is>
       </c>
       <c r="O159" t="n">
@@ -14507,7 +14507,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.701770</t>
+          <t>2025-04-06T02:26:52.913685</t>
         </is>
       </c>
       <c r="O160" t="n">
@@ -14595,7 +14595,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.701770</t>
+          <t>2025-04-06T02:26:52.913685</t>
         </is>
       </c>
       <c r="O161" t="n">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.701770</t>
+          <t>2025-04-06T02:26:52.913685</t>
         </is>
       </c>
       <c r="O162" t="n">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.701770</t>
+          <t>2025-04-06T02:26:52.929310</t>
         </is>
       </c>
       <c r="O163" t="n">
@@ -14859,7 +14859,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.701770</t>
+          <t>2025-04-06T02:26:52.929310</t>
         </is>
       </c>
       <c r="O164" t="n">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Southeast Europe</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G165" t="n">
@@ -14947,7 +14947,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.701770</t>
+          <t>2025-04-06T02:26:52.929310</t>
         </is>
       </c>
       <c r="O165" t="n">
@@ -15035,7 +15035,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.701770</t>
+          <t>2025-04-06T02:26:52.929310</t>
         </is>
       </c>
       <c r="O166" t="n">
@@ -15123,7 +15123,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.717393</t>
+          <t>2025-04-06T02:26:52.929310</t>
         </is>
       </c>
       <c r="O167" t="n">
@@ -15211,7 +15211,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.717393</t>
+          <t>2025-04-06T02:26:52.929310</t>
         </is>
       </c>
       <c r="O168" t="n">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.717393</t>
+          <t>2025-04-06T02:26:52.929310</t>
         </is>
       </c>
       <c r="O169" t="n">
@@ -15387,7 +15387,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.717393</t>
+          <t>2025-04-06T02:26:52.929310</t>
         </is>
       </c>
       <c r="O170" t="n">
@@ -15439,7 +15439,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Southern Europe</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -15475,7 +15475,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.717393</t>
+          <t>2025-04-06T02:26:52.944939</t>
         </is>
       </c>
       <c r="O171" t="n">
@@ -15563,7 +15563,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.717393</t>
+          <t>2025-04-06T02:26:52.944939</t>
         </is>
       </c>
       <c r="O172" t="n">
@@ -15651,7 +15651,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.717393</t>
+          <t>2025-04-06T02:26:52.944939</t>
         </is>
       </c>
       <c r="O173" t="n">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.717393</t>
+          <t>2025-04-06T02:26:52.944939</t>
         </is>
       </c>
       <c r="O174" t="n">
@@ -15839,7 +15839,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.733025</t>
+          <t>2025-04-06T02:26:52.944939</t>
         </is>
       </c>
       <c r="O175" t="n">
@@ -15927,7 +15927,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.733025</t>
+          <t>2025-04-06T02:26:52.944939</t>
         </is>
       </c>
       <c r="O176" t="n">
@@ -16015,7 +16015,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.733025</t>
+          <t>2025-04-06T02:26:52.944939</t>
         </is>
       </c>
       <c r="O177" t="n">
@@ -16103,7 +16103,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.733025</t>
+          <t>2025-04-06T02:26:52.944939</t>
         </is>
       </c>
       <c r="O178" t="n">
@@ -16191,7 +16191,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.733025</t>
+          <t>2025-04-06T02:26:52.960566</t>
         </is>
       </c>
       <c r="O179" t="n">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.733025</t>
+          <t>2025-04-06T02:26:52.960566</t>
         </is>
       </c>
       <c r="O180" t="n">
@@ -16367,7 +16367,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.733025</t>
+          <t>2025-04-06T02:26:52.960566</t>
         </is>
       </c>
       <c r="O181" t="n">
@@ -16419,7 +16419,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Northern Europe</t>
         </is>
       </c>
       <c r="G182" t="n">
@@ -16455,7 +16455,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.748643</t>
+          <t>2025-04-06T02:26:52.960566</t>
         </is>
       </c>
       <c r="O182" t="n">
@@ -16543,7 +16543,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.748643</t>
+          <t>2025-04-06T02:26:52.960566</t>
         </is>
       </c>
       <c r="O183" t="n">
@@ -16631,7 +16631,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.748643</t>
+          <t>2025-04-06T02:26:52.960566</t>
         </is>
       </c>
       <c r="O184" t="n">
@@ -16719,7 +16719,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.748643</t>
+          <t>2025-04-06T02:26:52.960566</t>
         </is>
       </c>
       <c r="O185" t="n">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.748643</t>
+          <t>2025-04-06T02:26:52.976183</t>
         </is>
       </c>
       <c r="O186" t="n">
@@ -16895,7 +16895,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.748643</t>
+          <t>2025-04-06T02:26:52.976183</t>
         </is>
       </c>
       <c r="O187" t="n">
@@ -16963,7 +16963,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>["Seoul"]</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16983,7 +16983,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.748643</t>
+          <t>2025-04-06T02:26:52.976183</t>
         </is>
       </c>
       <c r="O188" t="n">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.748643</t>
+          <t>2025-04-06T02:26:52.976183</t>
         </is>
       </c>
       <c r="O189" t="n">
@@ -17159,7 +17159,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.764267</t>
+          <t>2025-04-06T02:26:52.976183</t>
         </is>
       </c>
       <c r="O190" t="n">
@@ -17247,7 +17247,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.764267</t>
+          <t>2025-04-06T02:26:52.976183</t>
         </is>
       </c>
       <c r="O191" t="n">
@@ -17306,7 +17306,7 @@
         <v>300</v>
       </c>
       <c r="H192" t="n">
-        <v>34.2</v>
+        <v>34.80924866606932</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -17335,11 +17335,11 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.764267</t>
+          <t>2025-04-06T02:26:52.976183</t>
         </is>
       </c>
       <c r="O192" t="n">
-        <v>8.771929824561402</v>
+        <v>8.618399175401571</v>
       </c>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
@@ -17423,7 +17423,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.764267</t>
+          <t>2025-04-06T02:26:52.991809</t>
         </is>
       </c>
       <c r="O193" t="n">
@@ -17511,7 +17511,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.764267</t>
+          <t>2025-04-06T02:26:52.991809</t>
         </is>
       </c>
       <c r="O194" t="n">
@@ -17599,7 +17599,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.764267</t>
+          <t>2025-04-06T02:26:52.991809</t>
         </is>
       </c>
       <c r="O195" t="n">
@@ -17658,7 +17658,7 @@
         <v>2617820</v>
       </c>
       <c r="H196" t="n">
-        <v>33124.97145506841</v>
+        <v>33846</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
@@ -17687,11 +17687,11 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.764267</t>
+          <t>2025-04-06T02:26:52.991809</t>
         </is>
       </c>
       <c r="O196" t="n">
-        <v>79.0285964034982</v>
+        <v>77.3450333865154</v>
       </c>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="inlineStr"/>
@@ -17775,7 +17775,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.764267</t>
+          <t>2025-04-06T02:26:52.991809</t>
         </is>
       </c>
       <c r="O197" t="n">
@@ -17863,7 +17863,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.779893</t>
+          <t>2025-04-06T02:26:52.991809</t>
         </is>
       </c>
       <c r="O198" t="n">
@@ -17951,7 +17951,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.779893</t>
+          <t>2025-04-06T02:26:52.991809</t>
         </is>
       </c>
       <c r="O199" t="n">
@@ -18039,7 +18039,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.779893</t>
+          <t>2025-04-06T02:26:52.991809</t>
         </is>
       </c>
       <c r="O200" t="n">
@@ -18127,7 +18127,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.779893</t>
+          <t>2025-04-06T02:26:53.007438</t>
         </is>
       </c>
       <c r="O201" t="n">
@@ -18215,7 +18215,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.779893</t>
+          <t>2025-04-06T02:26:53.007438</t>
         </is>
       </c>
       <c r="O202" t="n">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.779893</t>
+          <t>2025-04-06T02:26:53.007438</t>
         </is>
       </c>
       <c r="O203" t="n">
@@ -18391,7 +18391,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.779893</t>
+          <t>2025-04-06T02:26:53.007438</t>
         </is>
       </c>
       <c r="O204" t="n">
@@ -18479,7 +18479,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.795526</t>
+          <t>2025-04-06T02:26:53.023062</t>
         </is>
       </c>
       <c r="O205" t="n">
@@ -18567,7 +18567,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.795526</t>
+          <t>2025-04-06T02:26:53.023062</t>
         </is>
       </c>
       <c r="O206" t="n">
@@ -18655,7 +18655,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.795526</t>
+          <t>2025-04-06T02:26:53.023062</t>
         </is>
       </c>
       <c r="O207" t="n">
@@ -18743,7 +18743,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.795526</t>
+          <t>2025-04-06T02:26:53.023062</t>
         </is>
       </c>
       <c r="O208" t="n">
@@ -18831,7 +18831,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.795526</t>
+          <t>2025-04-06T02:26:53.023062</t>
         </is>
       </c>
       <c r="O209" t="n">
@@ -18919,7 +18919,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.795526</t>
+          <t>2025-04-06T02:26:53.038684</t>
         </is>
       </c>
       <c r="O210" t="n">
@@ -19007,7 +19007,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.795526</t>
+          <t>2025-04-06T02:26:53.038684</t>
         </is>
       </c>
       <c r="O211" t="n">
@@ -19095,7 +19095,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.811143</t>
+          <t>2025-04-06T02:26:53.038684</t>
         </is>
       </c>
       <c r="O212" t="n">
@@ -19183,7 +19183,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.812172</t>
+          <t>2025-04-06T02:26:53.038684</t>
         </is>
       </c>
       <c r="O213" t="n">
@@ -19271,7 +19271,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.812172</t>
+          <t>2025-04-06T02:26:53.038684</t>
         </is>
       </c>
       <c r="O214" t="n">
@@ -19359,7 +19359,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.812172</t>
+          <t>2025-04-06T02:26:53.038684</t>
         </is>
       </c>
       <c r="O215" t="n">
@@ -19447,7 +19447,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.812172</t>
+          <t>2025-04-06T02:26:53.038684</t>
         </is>
       </c>
       <c r="O216" t="n">
@@ -19535,7 +19535,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.812172</t>
+          <t>2025-04-06T02:26:53.038684</t>
         </is>
       </c>
       <c r="O217" t="n">
@@ -19623,7 +19623,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.812172</t>
+          <t>2025-04-06T02:26:53.054311</t>
         </is>
       </c>
       <c r="O218" t="n">
@@ -19711,7 +19711,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.812172</t>
+          <t>2025-04-06T02:26:53.054311</t>
         </is>
       </c>
       <c r="O219" t="n">
@@ -19799,7 +19799,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.812172</t>
+          <t>2025-04-06T02:26:53.054311</t>
         </is>
       </c>
       <c r="O220" t="n">
@@ -19887,7 +19887,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.827849</t>
+          <t>2025-04-06T02:26:53.054311</t>
         </is>
       </c>
       <c r="O221" t="n">
@@ -19975,7 +19975,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.827849</t>
+          <t>2025-04-06T02:26:53.054311</t>
         </is>
       </c>
       <c r="O222" t="n">
@@ -20063,7 +20063,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.827849</t>
+          <t>2025-04-06T02:26:53.054311</t>
         </is>
       </c>
       <c r="O223" t="n">
@@ -20151,7 +20151,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.827849</t>
+          <t>2025-04-06T02:26:53.069939</t>
         </is>
       </c>
       <c r="O224" t="n">
@@ -20239,7 +20239,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.827849</t>
+          <t>2025-04-06T02:26:53.069939</t>
         </is>
       </c>
       <c r="O225" t="n">
@@ -20327,7 +20327,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.827849</t>
+          <t>2025-04-06T02:26:53.069939</t>
         </is>
       </c>
       <c r="O226" t="n">
@@ -20415,7 +20415,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.827849</t>
+          <t>2025-04-06T02:26:53.069939</t>
         </is>
       </c>
       <c r="O227" t="n">
@@ -20503,7 +20503,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.827849</t>
+          <t>2025-04-06T02:26:53.069939</t>
         </is>
       </c>
       <c r="O228" t="n">
@@ -20591,7 +20591,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.843478</t>
+          <t>2025-04-06T02:26:53.069939</t>
         </is>
       </c>
       <c r="O229" t="n">
@@ -20679,7 +20679,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.843478</t>
+          <t>2025-04-06T02:26:53.069939</t>
         </is>
       </c>
       <c r="O230" t="n">
@@ -20767,7 +20767,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.843478</t>
+          <t>2025-04-06T02:26:53.069939</t>
         </is>
       </c>
       <c r="O231" t="n">
@@ -20855,7 +20855,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.843478</t>
+          <t>2025-04-06T02:26:53.085556</t>
         </is>
       </c>
       <c r="O232" t="n">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.843478</t>
+          <t>2025-04-06T02:26:53.085556</t>
         </is>
       </c>
       <c r="O233" t="n">
@@ -21031,7 +21031,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.843478</t>
+          <t>2025-04-06T02:26:53.085556</t>
         </is>
       </c>
       <c r="O234" t="n">
@@ -21119,7 +21119,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.843478</t>
+          <t>2025-04-06T02:26:53.085556</t>
         </is>
       </c>
       <c r="O235" t="n">
@@ -21207,7 +21207,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.859097</t>
+          <t>2025-04-06T02:26:53.085556</t>
         </is>
       </c>
       <c r="O236" t="n">
@@ -21295,7 +21295,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.859097</t>
+          <t>2025-04-06T02:26:53.085556</t>
         </is>
       </c>
       <c r="O237" t="n">
@@ -21383,7 +21383,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.859097</t>
+          <t>2025-04-06T02:26:53.085556</t>
         </is>
       </c>
       <c r="O238" t="n">
@@ -21471,7 +21471,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.859097</t>
+          <t>2025-04-06T02:26:53.085556</t>
         </is>
       </c>
       <c r="O239" t="n">
@@ -21559,7 +21559,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.859097</t>
+          <t>2025-04-06T02:26:53.101195</t>
         </is>
       </c>
       <c r="O240" t="n">
@@ -21647,7 +21647,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.859097</t>
+          <t>2025-04-06T02:26:53.101195</t>
         </is>
       </c>
       <c r="O241" t="n">
@@ -21703,7 +21703,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>38659</v>
+        <v>39039</v>
       </c>
       <c r="H242" t="n">
         <v>53</v>
@@ -21735,11 +21735,11 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.859097</t>
+          <t>2025-04-06T02:26:53.101195</t>
         </is>
       </c>
       <c r="O242" t="n">
-        <v>729.4150943396227</v>
+        <v>736.5849056603773</v>
       </c>
       <c r="P242" t="inlineStr"/>
       <c r="Q242" t="inlineStr"/>
@@ -21753,7 +21753,7 @@
         </is>
       </c>
       <c r="U242" t="n">
-        <v>25.86719780646163</v>
+        <v>25.61541023079485</v>
       </c>
       <c r="V242" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.859097</t>
+          <t>2025-04-06T02:26:53.101195</t>
         </is>
       </c>
       <c r="O243" t="n">
@@ -21911,7 +21911,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.874722</t>
+          <t>2025-04-06T02:26:53.101195</t>
         </is>
       </c>
       <c r="O244" t="n">
@@ -21999,7 +21999,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.874722</t>
+          <t>2025-04-06T02:26:53.101195</t>
         </is>
       </c>
       <c r="O245" t="n">
@@ -22087,7 +22087,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.874722</t>
+          <t>2025-04-06T02:26:53.101195</t>
         </is>
       </c>
       <c r="O246" t="n">
@@ -22175,7 +22175,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.874722</t>
+          <t>2025-04-06T02:26:53.101195</t>
         </is>
       </c>
       <c r="O247" t="n">
@@ -22263,7 +22263,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.874722</t>
+          <t>2025-04-06T02:26:53.116809</t>
         </is>
       </c>
       <c r="O248" t="n">
@@ -22322,7 +22322,7 @@
         <v>5084300</v>
       </c>
       <c r="H249" t="n">
-        <v>270467</v>
+        <v>268208.9349268354</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
@@ -22351,11 +22351,11 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.874722</t>
+          <t>2025-04-06T02:26:53.116809</t>
         </is>
       </c>
       <c r="O249" t="n">
-        <v>18.79822677073358</v>
+        <v>18.95649002665383</v>
       </c>
       <c r="P249" t="inlineStr"/>
       <c r="Q249" t="inlineStr"/>
@@ -22439,7 +22439,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.874722</t>
+          <t>2025-04-06T02:26:53.116809</t>
         </is>
       </c>
       <c r="O250" t="n">
@@ -22527,7 +22527,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>2025-04-06T02:22:39.874722</t>
+          <t>2025-04-06T02:26:53.116809</t>
         </is>
       </c>
       <c r="O251" t="n">
